--- a/H_SK_PRD.xlsx
+++ b/H_SK_PRD.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\172.17.152.102\ftp\Adam_ftp\H_SK post_changes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\172.17.152.102\ftp\Adam_ftp\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -570,7 +570,7 @@
     <t>Remote Information</t>
   </si>
   <si>
-    <t>Analog &amp; Tank(T) Points List generated at 2023/01/30 09:50</t>
+    <t>Analog &amp; Tank(T) Points List generated at 2023/01/30 09:35</t>
   </si>
   <si>
     <t>Pembina Pipeline Corp.</t>
@@ -594,7 +594,7 @@
     <t>Rate Name</t>
   </si>
   <si>
-    <t>Rate Points List generated at 2023/01/30 09:50</t>
+    <t>Rate Points List generated at 2023/01/30 09:35</t>
   </si>
   <si>
     <t>OPP/F</t>
@@ -2184,7 +2184,7 @@
     <t>Status Name</t>
   </si>
   <si>
-    <t>Status/Digital Points List generated at 2023/01/30 09:50</t>
+    <t>Status/Digital Points List generated at 2023/01/30 09:35</t>
   </si>
 </sst>
 </file>

--- a/H_SK_PRD.xlsx
+++ b/H_SK_PRD.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10116"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\172.17.152.102\ftp\Adam_ftp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adamellery/Git/ptcheck_compares/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{596AE4F8-EA4E-E541-9BFD-F3D9E3261962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15660" windowHeight="12315"/>
+    <workbookView xWindow="21800" yWindow="580" windowWidth="26940" windowHeight="26920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Analog" sheetId="2" r:id="rId1"/>
@@ -51,9 +52,6 @@
     <t>C</t>
   </si>
   <si>
-    <t>H_SK Control Room Temperature</t>
-  </si>
-  <si>
     <t>H_SK_TT906</t>
   </si>
   <si>
@@ -2185,12 +2183,15 @@
   </si>
   <si>
     <t>Status/Digital Points List generated at 2023/01/30 09:35</t>
+  </si>
+  <si>
+    <t>H_SK Control Room Temperature2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2259,7 +2260,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2536,34 +2537,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="56.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="56.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.6640625" style="1" customWidth="1"/>
     <col min="5" max="6" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="2.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="2.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="2.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="4.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.6640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="2.6640625" style="1" customWidth="1"/>
     <col min="15" max="15" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="16" max="16" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -2581,9 +2584,9 @@
       <c r="O1" s="4"/>
       <c r="P1" s="4"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -2601,7 +2604,7 @@
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -2619,9 +2622,9 @@
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -2639,57 +2642,57 @@
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K5" s="3"/>
       <c r="L5" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="N5" s="3"/>
       <c r="O5" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E9" s="1">
         <v>0</v>
@@ -2698,19 +2701,19 @@
         <v>23</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O9" s="1" t="s">
         <v>1</v>
@@ -2719,12 +2722,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>
@@ -2733,19 +2736,19 @@
         <v>59</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>4</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O10" s="1" t="s">
         <v>1</v>
@@ -2754,12 +2757,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E11" s="1">
         <v>0</v>
@@ -2768,19 +2771,19 @@
         <v>59</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>4</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O11" s="1" t="s">
         <v>1</v>
@@ -2789,12 +2792,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
@@ -2806,13 +2809,13 @@
         <v>4</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>4</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O12" s="1" t="s">
         <v>1</v>
@@ -2821,12 +2824,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
@@ -2838,13 +2841,13 @@
         <v>4</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>4</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O13" s="1" t="s">
         <v>1</v>
@@ -2853,12 +2856,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E15" s="1">
         <v>2015</v>
@@ -2870,13 +2873,13 @@
         <v>4</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>4</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O15" s="1" t="s">
         <v>1</v>
@@ -2885,12 +2888,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E16" s="1">
         <v>0</v>
@@ -2899,19 +2902,19 @@
         <v>7</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>4</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O16" s="1" t="s">
         <v>1</v>
@@ -2920,12 +2923,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E17" s="1">
         <v>0</v>
@@ -2934,13 +2937,13 @@
         <v>1440</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L17" s="1" t="s">
         <v>2</v>
@@ -2952,12 +2955,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E18" s="1">
         <v>0</v>
@@ -2966,13 +2969,13 @@
         <v>7000</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L18" s="1" t="s">
         <v>2</v>
@@ -2984,12 +2987,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E19" s="1">
         <v>0</v>
@@ -2998,13 +3001,13 @@
         <v>7000</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L19" s="1" t="s">
         <v>2</v>
@@ -3016,12 +3019,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E21" s="1">
         <v>0</v>
@@ -3030,13 +3033,13 @@
         <v>3300</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L21" s="1" t="s">
         <v>2</v>
@@ -3048,12 +3051,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E22" s="1">
         <v>0</v>
@@ -3062,13 +3065,13 @@
         <v>3300</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L22" s="1" t="s">
         <v>2</v>
@@ -3080,12 +3083,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E23" s="1">
         <v>0</v>
@@ -3094,13 +3097,13 @@
         <v>10000</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L23" s="1" t="s">
         <v>2</v>
@@ -3112,12 +3115,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E24" s="1">
         <v>0</v>
@@ -3126,13 +3129,13 @@
         <v>7000</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L24" s="1" t="s">
         <v>2</v>
@@ -3144,12 +3147,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E25" s="1">
         <v>0</v>
@@ -3158,13 +3161,13 @@
         <v>10000</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L25" s="1" t="s">
         <v>2</v>
@@ -3176,12 +3179,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E27" s="1">
         <v>0</v>
@@ -3190,13 +3193,13 @@
         <v>10000</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L27" s="1" t="s">
         <v>2</v>
@@ -3208,12 +3211,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E28" s="1">
         <v>0</v>
@@ -3222,13 +3225,13 @@
         <v>10000</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L28" s="1" t="s">
         <v>2</v>
@@ -3240,12 +3243,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E29" s="1">
         <v>0</v>
@@ -3254,13 +3257,13 @@
         <v>10000</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L29" s="1" t="s">
         <v>2</v>
@@ -3272,12 +3275,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E30" s="1">
         <v>0</v>
@@ -3286,13 +3289,13 @@
         <v>10000</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L30" s="1" t="s">
         <v>2</v>
@@ -3304,12 +3307,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E31" s="1">
         <v>0</v>
@@ -3318,13 +3321,13 @@
         <v>10000</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L31" s="1" t="s">
         <v>2</v>
@@ -3336,12 +3339,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E33" s="1">
         <v>0</v>
@@ -3350,13 +3353,13 @@
         <v>10000</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L33" s="1" t="s">
         <v>2</v>
@@ -3368,12 +3371,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E34" s="1">
         <v>0</v>
@@ -3382,13 +3385,13 @@
         <v>10000</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L34" s="1" t="s">
         <v>2</v>
@@ -3400,12 +3403,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E35" s="1">
         <v>0</v>
@@ -3414,13 +3417,13 @@
         <v>10000</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L35" s="1" t="s">
         <v>2</v>
@@ -3432,12 +3435,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E36" s="1">
         <v>-20</v>
@@ -3452,7 +3455,7 @@
         <v>4</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L36" s="1" t="s">
         <v>2</v>
@@ -3464,12 +3467,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E37" s="1">
         <v>-50</v>
@@ -3484,7 +3487,7 @@
         <v>4</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L37" s="1" t="s">
         <v>2</v>
@@ -3496,12 +3499,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E39" s="1">
         <v>0</v>
@@ -3510,13 +3513,13 @@
         <v>100</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L39" s="1" t="s">
         <v>2</v>
@@ -3528,12 +3531,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E40" s="1">
         <v>0</v>
@@ -3542,13 +3545,13 @@
         <v>100</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I40" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L40" s="1" t="s">
         <v>2</v>
@@ -3560,12 +3563,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B41" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E41" s="1">
         <v>0</v>
@@ -3574,13 +3577,13 @@
         <v>100</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I41" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L41" s="1" t="s">
         <v>2</v>
@@ -3592,12 +3595,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E42" s="1">
         <v>0</v>
@@ -3606,13 +3609,13 @@
         <v>100</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I42" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L42" s="1" t="s">
         <v>2</v>
@@ -3624,12 +3627,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B43" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E43" s="1">
         <v>0</v>
@@ -3638,19 +3641,19 @@
         <v>10000</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I43" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L43" s="1" t="s">
         <v>4</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O43" s="1" t="s">
         <v>1</v>
@@ -3659,12 +3662,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E45" s="1">
         <v>0</v>
@@ -3673,19 +3676,19 @@
         <v>10000</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I45" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L45" s="1" t="s">
         <v>4</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O45" s="1" t="s">
         <v>1</v>
@@ -3694,12 +3697,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B46" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E46" s="1">
         <v>0</v>
@@ -3708,30 +3711,30 @@
         <v>100</v>
       </c>
       <c r="G46" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O46" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P46" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B47" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="L46" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="O46" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="P46" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B47" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="E47" s="1">
         <v>0</v>
@@ -3740,13 +3743,13 @@
         <v>100</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I47" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L47" s="1" t="s">
         <v>2</v>
@@ -3758,12 +3761,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B48" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E48" s="1">
         <v>0</v>
@@ -3772,13 +3775,13 @@
         <v>10000</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I48" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L48" s="1" t="s">
         <v>2</v>
@@ -3790,12 +3793,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B49" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E49" s="1">
         <v>0</v>
@@ -3804,13 +3807,13 @@
         <v>10000</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I49" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L49" s="1" t="s">
         <v>2</v>
@@ -3822,12 +3825,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B51" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E51" s="1">
         <v>0</v>
@@ -3836,13 +3839,13 @@
         <v>10000</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I51" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L51" s="1" t="s">
         <v>2</v>
@@ -3854,12 +3857,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B52" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E52" s="1">
         <v>0</v>
@@ -3868,13 +3871,13 @@
         <v>75</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I52" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L52" s="1" t="s">
         <v>2</v>
@@ -3886,12 +3889,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B53" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E53" s="1">
         <v>0</v>
@@ -3900,13 +3903,13 @@
         <v>75</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I53" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L53" s="1" t="s">
         <v>2</v>
@@ -3918,12 +3921,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B54" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E54" s="1">
         <v>0</v>
@@ -3932,19 +3935,19 @@
         <v>3300</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I54" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L54" s="1" t="s">
         <v>4</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O54" s="1" t="s">
         <v>1</v>
@@ -3953,12 +3956,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B55" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E55" s="1">
         <v>0</v>
@@ -3967,13 +3970,13 @@
         <v>50</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I55" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L55" s="1" t="s">
         <v>2</v>
@@ -3985,12 +3988,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B57" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E57" s="1">
         <v>0</v>
@@ -3999,30 +4002,30 @@
         <v>50</v>
       </c>
       <c r="G57" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O57" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P57" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B58" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="I57" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J57" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L57" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="O57" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="P57" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B58" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="E58" s="1">
         <v>0</v>
@@ -4031,13 +4034,13 @@
         <v>50</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I58" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L58" s="1" t="s">
         <v>2</v>
@@ -4049,12 +4052,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B59" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E59" s="1">
         <v>-50</v>
@@ -4069,7 +4072,7 @@
         <v>4</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L59" s="1" t="s">
         <v>2</v>
@@ -4081,12 +4084,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B60" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E60" s="1">
         <v>0</v>
@@ -4095,33 +4098,33 @@
         <v>1000</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I60" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L60" s="1" t="s">
         <v>4</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O60" s="1" t="s">
         <v>1</v>
       </c>
       <c r="P60" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="61" spans="2:16" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B61" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E61" s="1">
         <v>0</v>
@@ -4136,7 +4139,7 @@
         <v>4</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L61" s="1" t="s">
         <v>2</v>
@@ -4148,12 +4151,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B63" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>6</v>
+        <v>717</v>
       </c>
       <c r="E63" s="1">
         <v>0</v>
@@ -4187,34 +4190,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="29" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.6640625" style="1" customWidth="1"/>
     <col min="5" max="6" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="2.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="2.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.6640625" style="1" customWidth="1"/>
     <col min="11" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="2.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="2.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="2.6640625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="2.6640625" style="1" customWidth="1"/>
     <col min="15" max="15" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.7109375" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="16" max="16" width="6.6640625" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -4232,9 +4235,9 @@
       <c r="O1" s="4"/>
       <c r="P1" s="4"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -4252,7 +4255,7 @@
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -4270,9 +4273,9 @@
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -4290,52 +4293,52 @@
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L5" s="3"/>
       <c r="M5" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="N5" s="3"/>
       <c r="O5" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -4345,34 +4348,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P190"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="56.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="56.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="4.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.6640625" style="1" customWidth="1"/>
     <col min="7" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="5.5" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="2.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="2.6640625" style="1" customWidth="1"/>
     <col min="14" max="14" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="17" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -4390,9 +4393,9 @@
       <c r="O1" s="4"/>
       <c r="P1" s="4"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -4410,7 +4413,7 @@
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -4428,9 +4431,9 @@
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -4448,59 +4451,59 @@
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="M5" s="3"/>
       <c r="N5" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>4</v>
@@ -4509,7 +4512,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>2</v>
@@ -4518,86 +4521,86 @@
         <v>1</v>
       </c>
       <c r="O9" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>699</v>
       </c>
-      <c r="P9" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
-        <v>705</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>704</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="1">
-        <v>1</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>703</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O10" s="1" t="s">
+      <c r="J11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>695</v>
       </c>
-      <c r="P10" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
-        <v>702</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>701</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" s="1">
-        <v>1</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>700</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>699</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
-        <v>698</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>697</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="1">
-        <v>1</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>696</v>
-      </c>
       <c r="J12" s="1" t="s">
         <v>2</v>
       </c>
@@ -4605,18 +4608,18 @@
         <v>1</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="P12" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>4</v>
@@ -4625,7 +4628,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>2</v>
@@ -4634,18 +4637,18 @@
         <v>1</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="P13" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>4</v>
@@ -4654,7 +4657,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>2</v>
@@ -4663,18 +4666,18 @@
         <v>1</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="P15" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>4</v>
@@ -4683,7 +4686,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>2</v>
@@ -4692,18 +4695,18 @@
         <v>1</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="P16" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>4</v>
@@ -4712,7 +4715,7 @@
         <v>1</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>2</v>
@@ -4721,18 +4724,18 @@
         <v>1</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="P17" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>4</v>
@@ -4741,7 +4744,7 @@
         <v>1</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>2</v>
@@ -4750,18 +4753,18 @@
         <v>1</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="P18" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>4</v>
@@ -4770,7 +4773,7 @@
         <v>1</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>2</v>
@@ -4779,18 +4782,18 @@
         <v>1</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="P19" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>4</v>
@@ -4799,7 +4802,7 @@
         <v>1</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>2</v>
@@ -4808,18 +4811,18 @@
         <v>1</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="P21" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>4</v>
@@ -4828,7 +4831,7 @@
         <v>1</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>2</v>
@@ -4837,18 +4840,18 @@
         <v>1</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="P22" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>4</v>
@@ -4857,7 +4860,7 @@
         <v>1</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>2</v>
@@ -4866,18 +4869,18 @@
         <v>1</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="P23" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>4</v>
@@ -4886,7 +4889,7 @@
         <v>1</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>2</v>
@@ -4895,18 +4898,18 @@
         <v>1</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="P24" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>4</v>
@@ -4915,7 +4918,7 @@
         <v>1</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>4</v>
@@ -4930,18 +4933,18 @@
         <v>1</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="P25" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>4</v>
@@ -4950,7 +4953,7 @@
         <v>1</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>2</v>
@@ -4959,18 +4962,18 @@
         <v>1</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="P27" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>4</v>
@@ -4979,7 +4982,7 @@
         <v>1</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>2</v>
@@ -4988,18 +4991,18 @@
         <v>1</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="P28" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>4</v>
@@ -5008,7 +5011,7 @@
         <v>1</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>2</v>
@@ -5017,18 +5020,18 @@
         <v>1</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="P29" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>4</v>
@@ -5037,7 +5040,7 @@
         <v>1</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>2</v>
@@ -5046,18 +5049,18 @@
         <v>1</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="P30" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>4</v>
@@ -5066,7 +5069,7 @@
         <v>1</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>2</v>
@@ -5075,18 +5078,18 @@
         <v>1</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="P31" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>4</v>
@@ -5095,7 +5098,7 @@
         <v>1</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>4</v>
@@ -5110,18 +5113,18 @@
         <v>1</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="P33" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>4</v>
@@ -5130,7 +5133,7 @@
         <v>1</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>2</v>
@@ -5139,18 +5142,18 @@
         <v>1</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="P34" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>4</v>
@@ -5159,7 +5162,7 @@
         <v>1</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>2</v>
@@ -5168,18 +5171,18 @@
         <v>1</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="P35" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>4</v>
@@ -5188,7 +5191,7 @@
         <v>1</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>2</v>
@@ -5197,18 +5200,18 @@
         <v>1</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="P36" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>4</v>
@@ -5217,7 +5220,7 @@
         <v>1</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>2</v>
@@ -5226,18 +5229,18 @@
         <v>1</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="P37" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>4</v>
@@ -5246,7 +5249,7 @@
         <v>1</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J39" s="1" t="s">
         <v>2</v>
@@ -5255,18 +5258,18 @@
         <v>1</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="P39" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>4</v>
@@ -5275,7 +5278,7 @@
         <v>1</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="J40" s="1" t="s">
         <v>4</v>
@@ -5290,18 +5293,18 @@
         <v>1</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="P40" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B41" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>4</v>
@@ -5310,7 +5313,7 @@
         <v>1</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="J41" s="1" t="s">
         <v>2</v>
@@ -5319,18 +5322,18 @@
         <v>1</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="P41" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>4</v>
@@ -5339,7 +5342,7 @@
         <v>1</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="J42" s="1" t="s">
         <v>2</v>
@@ -5348,18 +5351,18 @@
         <v>1</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="P42" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B43" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>4</v>
@@ -5368,7 +5371,7 @@
         <v>1</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="J43" s="1" t="s">
         <v>2</v>
@@ -5377,18 +5380,18 @@
         <v>1</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="P43" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>4</v>
@@ -5397,7 +5400,7 @@
         <v>1</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="J45" s="1" t="s">
         <v>2</v>
@@ -5406,18 +5409,18 @@
         <v>1</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="P45" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B46" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>4</v>
@@ -5426,7 +5429,7 @@
         <v>1</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="J46" s="1" t="s">
         <v>2</v>
@@ -5435,18 +5438,18 @@
         <v>1</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="P46" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>4</v>
@@ -5455,7 +5458,7 @@
         <v>1</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="J47" s="1" t="s">
         <v>2</v>
@@ -5464,18 +5467,18 @@
         <v>1</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="P47" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B48" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>4</v>
@@ -5484,7 +5487,7 @@
         <v>1</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="J48" s="1" t="s">
         <v>2</v>
@@ -5493,550 +5496,550 @@
         <v>1</v>
       </c>
       <c r="O48" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="P48" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B49" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F49" s="1">
+        <v>1</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N49" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O49" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="P49" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B51" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F51" s="1">
+        <v>1</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N51" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O51" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="P51" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B52" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F52" s="1">
+        <v>1</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N52" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O52" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="P52" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B53" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F53" s="1">
+        <v>1</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N53" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O53" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="P53" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B54" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F54" s="1">
+        <v>1</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N54" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O54" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="P54" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B55" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F55" s="1">
+        <v>1</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N55" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O55" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="P55" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B57" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F57" s="1">
+        <v>1</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N57" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O57" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="P57" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B58" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F58" s="1">
+        <v>1</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N58" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O58" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="P58" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B59" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F59" s="1">
+        <v>1</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N59" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O59" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="P59" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B60" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F60" s="1">
+        <v>1</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N60" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O60" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="P60" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B61" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F61" s="1">
+        <v>1</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N61" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O61" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="P61" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B63" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F63" s="1">
+        <v>1</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N63" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O63" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="P63" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B64" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F64" s="1">
+        <v>1</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N64" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O64" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="P64" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B65" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F65" s="1">
+        <v>1</v>
+      </c>
+      <c r="G65" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="P48" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B49" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F49" s="1">
-        <v>1</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>587</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N49" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O49" s="1" t="s">
+      <c r="J65" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N65" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O65" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="P65" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B66" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F66" s="1">
+        <v>1</v>
+      </c>
+      <c r="G66" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="P49" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B51" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>585</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F51" s="1">
-        <v>1</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="J51" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N51" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O51" s="1" t="s">
+      <c r="J66" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N66" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O66" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="P66" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B67" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F67" s="1">
+        <v>1</v>
+      </c>
+      <c r="G67" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="P51" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B52" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>582</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F52" s="1">
-        <v>1</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>581</v>
-      </c>
-      <c r="J52" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N52" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O52" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="P52" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B53" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F53" s="1">
-        <v>1</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="J53" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N53" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O53" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="P53" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B54" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F54" s="1">
-        <v>1</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="J54" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N54" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O54" s="1" t="s">
+      <c r="J67" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N67" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O67" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="P67" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B69" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F69" s="1">
+        <v>1</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N69" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O69" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="P69" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B70" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F70" s="1">
+        <v>1</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N70" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O70" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="P70" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B71" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F71" s="1">
+        <v>1</v>
+      </c>
+      <c r="G71" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="P54" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B55" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F55" s="1">
-        <v>1</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="J55" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N55" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O55" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="P55" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B57" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F57" s="1">
-        <v>1</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="J57" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N57" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O57" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="P57" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B58" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F58" s="1">
-        <v>1</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="J58" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N58" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O58" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="P58" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B59" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F59" s="1">
-        <v>1</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="J59" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N59" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O59" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="P59" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B60" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F60" s="1">
-        <v>1</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="J60" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N60" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O60" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="P60" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B61" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F61" s="1">
-        <v>1</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>557</v>
-      </c>
-      <c r="J61" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N61" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O61" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="P61" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B63" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F63" s="1">
-        <v>1</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="J63" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N63" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O63" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="P63" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B64" s="1" t="s">
-        <v>553</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F64" s="1">
-        <v>1</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="J64" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N64" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O64" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="P64" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B65" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F65" s="1">
-        <v>1</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="J65" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N65" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O65" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="P65" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B66" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F66" s="1">
-        <v>1</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="J66" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N66" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O66" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="P66" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B67" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F67" s="1">
-        <v>1</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="J67" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N67" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O67" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="P67" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B69" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F69" s="1">
-        <v>1</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="J69" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N69" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O69" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="P69" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B70" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F70" s="1">
-        <v>1</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="J70" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N70" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O70" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="P70" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B71" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F71" s="1">
-        <v>1</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>530</v>
-      </c>
       <c r="J71" s="1" t="s">
         <v>2</v>
       </c>
@@ -6044,18 +6047,18 @@
         <v>1</v>
       </c>
       <c r="O71" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="P71" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B72" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>4</v>
@@ -6064,10 +6067,10 @@
         <v>2</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="J72" s="1" t="s">
         <v>4</v>
@@ -6082,18 +6085,18 @@
         <v>1</v>
       </c>
       <c r="O72" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="P72" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B73" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>4</v>
@@ -6102,10 +6105,10 @@
         <v>2</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="J73" s="1" t="s">
         <v>4</v>
@@ -6120,18 +6123,18 @@
         <v>1</v>
       </c>
       <c r="O73" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="P73" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B75" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>4</v>
@@ -6140,10 +6143,10 @@
         <v>2</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="J75" s="1" t="s">
         <v>4</v>
@@ -6158,18 +6161,18 @@
         <v>1</v>
       </c>
       <c r="O75" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="P75" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B76" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>4</v>
@@ -6178,10 +6181,10 @@
         <v>2</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="J76" s="1" t="s">
         <v>4</v>
@@ -6196,18 +6199,18 @@
         <v>1</v>
       </c>
       <c r="O76" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="P76" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B77" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>4</v>
@@ -6216,10 +6219,10 @@
         <v>2</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J77" s="1" t="s">
         <v>4</v>
@@ -6234,18 +6237,18 @@
         <v>1</v>
       </c>
       <c r="O77" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="P77" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B78" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>4</v>
@@ -6254,10 +6257,10 @@
         <v>2</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="J78" s="1" t="s">
         <v>4</v>
@@ -6272,18 +6275,18 @@
         <v>1</v>
       </c>
       <c r="O78" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="P78" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>4</v>
@@ -6292,7 +6295,7 @@
         <v>1</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="J79" s="1" t="s">
         <v>4</v>
@@ -6304,18 +6307,18 @@
         <v>1</v>
       </c>
       <c r="O79" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="P79" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B81" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>4</v>
@@ -6324,7 +6327,7 @@
         <v>1</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J81" s="1" t="s">
         <v>4</v>
@@ -6336,18 +6339,18 @@
         <v>1</v>
       </c>
       <c r="O81" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="P81" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B82" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>4</v>
@@ -6356,10 +6359,10 @@
         <v>2</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="J82" s="1" t="s">
         <v>4</v>
@@ -6374,18 +6377,18 @@
         <v>1</v>
       </c>
       <c r="O82" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="P82" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B83" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>4</v>
@@ -6394,10 +6397,10 @@
         <v>2</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="J83" s="1" t="s">
         <v>4</v>
@@ -6412,18 +6415,18 @@
         <v>1</v>
       </c>
       <c r="O83" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="P83" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B84" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>4</v>
@@ -6432,10 +6435,10 @@
         <v>2</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="J84" s="1" t="s">
         <v>4</v>
@@ -6450,18 +6453,18 @@
         <v>1</v>
       </c>
       <c r="O84" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="P84" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B85" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>4</v>
@@ -6470,10 +6473,10 @@
         <v>2</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="J85" s="1" t="s">
         <v>4</v>
@@ -6488,18 +6491,18 @@
         <v>1</v>
       </c>
       <c r="O85" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="P85" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B87" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>4</v>
@@ -6508,10 +6511,10 @@
         <v>2</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="J87" s="1" t="s">
         <v>4</v>
@@ -6526,18 +6529,18 @@
         <v>1</v>
       </c>
       <c r="O87" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="P87" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B88" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>4</v>
@@ -6546,10 +6549,10 @@
         <v>2</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="J88" s="1" t="s">
         <v>4</v>
@@ -6564,18 +6567,18 @@
         <v>1</v>
       </c>
       <c r="O88" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="P88" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B89" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>4</v>
@@ -6584,7 +6587,7 @@
         <v>1</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="J89" s="1" t="s">
         <v>2</v>
@@ -6593,318 +6596,318 @@
         <v>1</v>
       </c>
       <c r="O89" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P89" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B90" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F90" s="1">
+        <v>1</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N90" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O90" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P90" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B91" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F91" s="1">
+        <v>1</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N91" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O91" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P91" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B93" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F93" s="1">
+        <v>1</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N93" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O93" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P93" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B94" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F94" s="1">
+        <v>1</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="J94" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N94" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O94" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P94" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B95" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F95" s="1">
+        <v>1</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="J95" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N95" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O95" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P95" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B96" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F96" s="1">
+        <v>1</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="J96" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N96" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O96" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P96" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B97" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F97" s="1">
+        <v>1</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="J97" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N97" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O97" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P97" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B99" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F99" s="1">
+        <v>1</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="J99" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N99" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O99" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P99" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B100" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F100" s="1">
+        <v>1</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="J100" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N100" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O100" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P100" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B101" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F101" s="1">
+        <v>1</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="J101" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N101" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O101" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P101" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B102" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F102" s="1">
+        <v>1</v>
+      </c>
+      <c r="G102" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="P89" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B90" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F90" s="1">
-        <v>1</v>
-      </c>
-      <c r="G90" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="J90" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N90" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O90" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="P90" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B91" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F91" s="1">
-        <v>1</v>
-      </c>
-      <c r="G91" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="J91" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N91" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O91" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="P91" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B93" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F93" s="1">
-        <v>1</v>
-      </c>
-      <c r="G93" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="J93" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N93" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O93" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="P93" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B94" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F94" s="1">
-        <v>1</v>
-      </c>
-      <c r="G94" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="J94" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N94" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O94" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="P94" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B95" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F95" s="1">
-        <v>1</v>
-      </c>
-      <c r="G95" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="J95" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N95" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O95" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="P95" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B96" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F96" s="1">
-        <v>1</v>
-      </c>
-      <c r="G96" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="J96" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N96" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O96" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="P96" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B97" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F97" s="1">
-        <v>1</v>
-      </c>
-      <c r="G97" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="J97" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N97" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O97" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="P97" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B99" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F99" s="1">
-        <v>1</v>
-      </c>
-      <c r="G99" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="J99" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N99" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O99" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="P99" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B100" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F100" s="1">
-        <v>1</v>
-      </c>
-      <c r="G100" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="J100" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N100" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O100" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="P100" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B101" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F101" s="1">
-        <v>1</v>
-      </c>
-      <c r="G101" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="J101" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N101" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O101" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="P101" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B102" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F102" s="1">
-        <v>1</v>
-      </c>
-      <c r="G102" s="1" t="s">
-        <v>439</v>
-      </c>
       <c r="J102" s="1" t="s">
         <v>2</v>
       </c>
@@ -6912,18 +6915,18 @@
         <v>1</v>
       </c>
       <c r="O102" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="P102" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B103" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>4</v>
@@ -6932,7 +6935,7 @@
         <v>1</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="J103" s="1" t="s">
         <v>2</v>
@@ -6941,927 +6944,927 @@
         <v>1</v>
       </c>
       <c r="O103" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="P103" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B105" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F105" s="1">
+        <v>1</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="J105" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N105" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O105" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="P105" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B106" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F106" s="1">
+        <v>1</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="J106" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N106" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O106" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="P106" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B107" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F107" s="1">
+        <v>1</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="J107" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N107" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O107" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="P107" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B108" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F108" s="1">
+        <v>1</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="J108" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N108" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O108" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="P108" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B109" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F109" s="1">
+        <v>1</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="J109" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N109" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O109" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="P109" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B111" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F111" s="1">
+        <v>1</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="J111" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N111" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O111" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="P111" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B112" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F112" s="1">
+        <v>1</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="J112" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N112" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O112" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="P112" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B113" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F113" s="1">
+        <v>1</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="J113" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N113" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O113" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="P113" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B114" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F114" s="1">
+        <v>1</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="J114" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N114" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O114" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="P114" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B115" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F115" s="1">
+        <v>1</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="J115" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N115" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O115" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="P115" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B117" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F117" s="1">
+        <v>1</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="J117" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N117" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O117" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="P117" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B118" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F118" s="1">
+        <v>1</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="J118" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N118" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O118" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="P118" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B119" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F119" s="1">
+        <v>1</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="J119" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N119" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O119" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="P119" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B120" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F120" s="1">
+        <v>1</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="J120" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N120" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O120" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="P120" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B121" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F121" s="1">
+        <v>1</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="J121" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N121" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O121" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="P121" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B123" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F123" s="1">
+        <v>1</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="J123" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N123" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O123" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="P123" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B124" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F124" s="1">
+        <v>1</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="J124" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N124" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O124" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="P124" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B125" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F125" s="1">
+        <v>1</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="J125" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N125" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O125" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="P125" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="126" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B126" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F126" s="1">
+        <v>1</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="J126" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N126" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O126" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="P126" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B127" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F127" s="1">
+        <v>1</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="J127" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N127" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O127" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="P127" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B129" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F129" s="1">
+        <v>1</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="J129" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N129" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O129" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="P129" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="130" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B130" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F130" s="1">
+        <v>1</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="J130" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N130" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O130" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="P130" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B131" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F131" s="1">
+        <v>1</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="J131" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N131" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O131" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="P131" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B132" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F132" s="1">
+        <v>1</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="J132" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N132" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O132" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="P132" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B133" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F133" s="1">
+        <v>1</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="J133" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N133" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O133" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="P133" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B135" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F135" s="1">
+        <v>1</v>
+      </c>
+      <c r="G135" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="J135" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N135" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O135" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="P135" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B136" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F136" s="1">
+        <v>1</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="J136" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N136" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O136" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="P136" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B137" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F137" s="1">
+        <v>1</v>
+      </c>
+      <c r="G137" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="J137" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N137" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O137" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="P137" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B138" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F138" s="1">
+        <v>1</v>
+      </c>
+      <c r="G138" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="P103" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B105" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F105" s="1">
-        <v>1</v>
-      </c>
-      <c r="G105" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="J105" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N105" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O105" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="P105" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B106" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F106" s="1">
-        <v>1</v>
-      </c>
-      <c r="G106" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="J106" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N106" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O106" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="P106" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B107" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F107" s="1">
-        <v>1</v>
-      </c>
-      <c r="G107" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="J107" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N107" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O107" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="P107" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B108" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F108" s="1">
-        <v>1</v>
-      </c>
-      <c r="G108" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="J108" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N108" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O108" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="P108" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B109" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F109" s="1">
-        <v>1</v>
-      </c>
-      <c r="G109" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="J109" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N109" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O109" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="P109" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B111" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F111" s="1">
-        <v>1</v>
-      </c>
-      <c r="G111" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="J111" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N111" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O111" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="P111" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B112" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F112" s="1">
-        <v>1</v>
-      </c>
-      <c r="G112" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="J112" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N112" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O112" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="P112" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B113" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="E113" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F113" s="1">
-        <v>1</v>
-      </c>
-      <c r="G113" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="J113" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N113" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O113" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="P113" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B114" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="E114" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F114" s="1">
-        <v>1</v>
-      </c>
-      <c r="G114" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="J114" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N114" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O114" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="P114" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B115" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="E115" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F115" s="1">
-        <v>1</v>
-      </c>
-      <c r="G115" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="J115" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N115" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O115" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="P115" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B117" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="E117" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F117" s="1">
-        <v>1</v>
-      </c>
-      <c r="G117" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="J117" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N117" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O117" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="P117" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B118" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="E118" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F118" s="1">
-        <v>1</v>
-      </c>
-      <c r="G118" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="J118" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N118" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O118" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="P118" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B119" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="E119" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F119" s="1">
-        <v>1</v>
-      </c>
-      <c r="G119" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="J119" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N119" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O119" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="P119" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B120" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="E120" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F120" s="1">
-        <v>1</v>
-      </c>
-      <c r="G120" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="J120" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N120" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O120" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="P120" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B121" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="E121" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F121" s="1">
-        <v>1</v>
-      </c>
-      <c r="G121" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="J121" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N121" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O121" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="P121" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B123" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="E123" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F123" s="1">
-        <v>1</v>
-      </c>
-      <c r="G123" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="J123" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N123" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O123" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="P123" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B124" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="E124" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F124" s="1">
-        <v>1</v>
-      </c>
-      <c r="G124" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="J124" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N124" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O124" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="P124" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B125" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="E125" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F125" s="1">
-        <v>1</v>
-      </c>
-      <c r="G125" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="J125" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N125" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O125" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="P125" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="126" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B126" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="E126" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F126" s="1">
-        <v>1</v>
-      </c>
-      <c r="G126" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="J126" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N126" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O126" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="P126" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B127" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="E127" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F127" s="1">
-        <v>1</v>
-      </c>
-      <c r="G127" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="J127" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N127" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O127" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="P127" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B129" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="E129" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F129" s="1">
-        <v>1</v>
-      </c>
-      <c r="G129" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="J129" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N129" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O129" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="P129" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="130" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B130" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="E130" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F130" s="1">
-        <v>1</v>
-      </c>
-      <c r="G130" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="J130" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N130" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O130" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="P130" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B131" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="E131" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F131" s="1">
-        <v>1</v>
-      </c>
-      <c r="G131" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="J131" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N131" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O131" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="P131" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B132" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="E132" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F132" s="1">
-        <v>1</v>
-      </c>
-      <c r="G132" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="J132" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N132" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O132" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="P132" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B133" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="E133" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F133" s="1">
-        <v>1</v>
-      </c>
-      <c r="G133" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="J133" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N133" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O133" s="1" t="s">
+      <c r="J138" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N138" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O138" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="P138" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B139" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F139" s="1">
+        <v>1</v>
+      </c>
+      <c r="G139" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="J139" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N139" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O139" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="P139" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B141" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F141" s="1">
+        <v>1</v>
+      </c>
+      <c r="G141" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="P133" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B135" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="E135" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F135" s="1">
-        <v>1</v>
-      </c>
-      <c r="G135" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="J135" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N135" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O135" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="P135" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B136" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="E136" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F136" s="1">
-        <v>1</v>
-      </c>
-      <c r="G136" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="J136" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N136" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O136" s="1" t="s">
+      <c r="J141" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N141" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O141" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="P141" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B142" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F142" s="1">
+        <v>1</v>
+      </c>
+      <c r="G142" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="P136" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B137" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="E137" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F137" s="1">
-        <v>1</v>
-      </c>
-      <c r="G137" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="J137" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N137" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O137" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="P137" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B138" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="E138" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F138" s="1">
-        <v>1</v>
-      </c>
-      <c r="G138" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="J138" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N138" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O138" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="P138" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B139" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="E139" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F139" s="1">
-        <v>1</v>
-      </c>
-      <c r="G139" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="J139" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N139" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O139" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="P139" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B141" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="C141" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="E141" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F141" s="1">
-        <v>1</v>
-      </c>
-      <c r="G141" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="J141" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N141" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O141" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="P141" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B142" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="C142" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="E142" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F142" s="1">
-        <v>1</v>
-      </c>
-      <c r="G142" s="1" t="s">
-        <v>334</v>
-      </c>
       <c r="J142" s="1" t="s">
         <v>2</v>
       </c>
@@ -7869,18 +7872,18 @@
         <v>1</v>
       </c>
       <c r="O142" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="P142" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B143" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E143" s="1" t="s">
         <v>4</v>
@@ -7889,7 +7892,7 @@
         <v>1</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J143" s="1" t="s">
         <v>2</v>
@@ -7898,57 +7901,57 @@
         <v>1</v>
       </c>
       <c r="O143" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="P143" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B144" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F144" s="1">
+        <v>1</v>
+      </c>
+      <c r="G144" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="J144" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N144" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O144" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="P144" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B145" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F145" s="1">
+        <v>1</v>
+      </c>
+      <c r="G145" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="P143" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B144" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="C144" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="E144" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F144" s="1">
-        <v>1</v>
-      </c>
-      <c r="G144" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="J144" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N144" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O144" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="P144" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B145" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="C145" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="E145" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F145" s="1">
-        <v>1</v>
-      </c>
-      <c r="G145" s="1" t="s">
-        <v>324</v>
-      </c>
       <c r="J145" s="1" t="s">
         <v>2</v>
       </c>
@@ -7956,18 +7959,18 @@
         <v>1</v>
       </c>
       <c r="O145" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="P145" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B147" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E147" s="1" t="s">
         <v>4</v>
@@ -7976,7 +7979,7 @@
         <v>1</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="J147" s="1" t="s">
         <v>4</v>
@@ -7991,18 +7994,18 @@
         <v>1</v>
       </c>
       <c r="O147" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="P147" s="1" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="148" spans="2:16" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="148" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B148" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E148" s="1" t="s">
         <v>4</v>
@@ -8011,7 +8014,7 @@
         <v>1</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J148" s="1" t="s">
         <v>4</v>
@@ -8026,18 +8029,18 @@
         <v>1</v>
       </c>
       <c r="O148" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="P148" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B149" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E149" s="1" t="s">
         <v>4</v>
@@ -8046,7 +8049,7 @@
         <v>1</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J149" s="1" t="s">
         <v>2</v>
@@ -8055,18 +8058,18 @@
         <v>1</v>
       </c>
       <c r="O149" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="P149" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B150" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E150" s="1" t="s">
         <v>4</v>
@@ -8075,7 +8078,7 @@
         <v>1</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J150" s="1" t="s">
         <v>4</v>
@@ -8090,18 +8093,18 @@
         <v>1</v>
       </c>
       <c r="O150" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="P150" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B151" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E151" s="1" t="s">
         <v>4</v>
@@ -8110,7 +8113,7 @@
         <v>1</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="J151" s="1" t="s">
         <v>2</v>
@@ -8119,18 +8122,18 @@
         <v>1</v>
       </c>
       <c r="O151" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="P151" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B153" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E153" s="1" t="s">
         <v>4</v>
@@ -8139,7 +8142,7 @@
         <v>1</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="J153" s="1" t="s">
         <v>2</v>
@@ -8148,18 +8151,18 @@
         <v>1</v>
       </c>
       <c r="O153" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="P153" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B154" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E154" s="1" t="s">
         <v>4</v>
@@ -8168,7 +8171,7 @@
         <v>1</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J154" s="1" t="s">
         <v>2</v>
@@ -8177,18 +8180,18 @@
         <v>1</v>
       </c>
       <c r="O154" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="P154" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B155" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E155" s="1" t="s">
         <v>4</v>
@@ -8197,7 +8200,7 @@
         <v>1</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J155" s="1" t="s">
         <v>2</v>
@@ -8206,18 +8209,18 @@
         <v>1</v>
       </c>
       <c r="O155" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="P155" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B156" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E156" s="1" t="s">
         <v>4</v>
@@ -8226,7 +8229,7 @@
         <v>1</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J156" s="1" t="s">
         <v>2</v>
@@ -8235,18 +8238,18 @@
         <v>1</v>
       </c>
       <c r="O156" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="P156" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B157" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E157" s="1" t="s">
         <v>4</v>
@@ -8255,7 +8258,7 @@
         <v>1</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J157" s="1" t="s">
         <v>2</v>
@@ -8264,18 +8267,18 @@
         <v>1</v>
       </c>
       <c r="O157" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="P157" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B159" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E159" s="1" t="s">
         <v>4</v>
@@ -8284,7 +8287,7 @@
         <v>1</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="J159" s="1" t="s">
         <v>2</v>
@@ -8293,18 +8296,18 @@
         <v>1</v>
       </c>
       <c r="O159" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="P159" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B160" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E160" s="1" t="s">
         <v>4</v>
@@ -8313,28 +8316,28 @@
         <v>1</v>
       </c>
       <c r="G160" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J160" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N160" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O160" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="P160" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B161" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C161" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="J160" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N160" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O160" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="P160" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B161" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C161" s="1" t="s">
-        <v>275</v>
-      </c>
       <c r="E161" s="1" t="s">
         <v>4</v>
       </c>
@@ -8342,7 +8345,7 @@
         <v>1</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J161" s="1" t="s">
         <v>2</v>
@@ -8351,288 +8354,288 @@
         <v>1</v>
       </c>
       <c r="O161" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="P161" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="162" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B162" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F162" s="1">
+        <v>1</v>
+      </c>
+      <c r="G162" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="J162" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N162" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O162" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="P162" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B163" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F163" s="1">
+        <v>1</v>
+      </c>
+      <c r="G163" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="J163" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N163" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O163" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="P163" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="165" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B165" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F165" s="1">
+        <v>1</v>
+      </c>
+      <c r="G165" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="J165" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N165" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O165" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="P165" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B166" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F166" s="1">
+        <v>1</v>
+      </c>
+      <c r="G166" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="J166" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N166" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O166" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="P166" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="167" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B167" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F167" s="1">
+        <v>1</v>
+      </c>
+      <c r="G167" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="J167" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N167" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O167" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="P167" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B168" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F168" s="1">
+        <v>1</v>
+      </c>
+      <c r="G168" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="J168" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N168" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O168" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="P168" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B169" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F169" s="1">
+        <v>1</v>
+      </c>
+      <c r="G169" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="J169" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N169" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O169" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="P169" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B171" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F171" s="1">
+        <v>1</v>
+      </c>
+      <c r="G171" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="J171" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N171" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O171" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="P171" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B172" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F172" s="1">
+        <v>1</v>
+      </c>
+      <c r="G172" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="J172" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N172" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O172" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="P172" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B173" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F173" s="1">
+        <v>1</v>
+      </c>
+      <c r="G173" s="1" t="s">
         <v>238</v>
-      </c>
-      <c r="P161" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="162" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B162" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="C162" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="E162" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F162" s="1">
-        <v>1</v>
-      </c>
-      <c r="G162" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="J162" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N162" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O162" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="P162" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B163" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C163" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="E163" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F163" s="1">
-        <v>1</v>
-      </c>
-      <c r="G163" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="J163" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N163" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O163" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="P163" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="165" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B165" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="C165" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="E165" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F165" s="1">
-        <v>1</v>
-      </c>
-      <c r="G165" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="J165" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N165" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O165" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="P165" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B166" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C166" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="E166" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F166" s="1">
-        <v>1</v>
-      </c>
-      <c r="G166" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="J166" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N166" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O166" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="P166" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="167" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B167" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="C167" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="E167" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F167" s="1">
-        <v>1</v>
-      </c>
-      <c r="G167" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="J167" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N167" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O167" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="P167" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B168" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="C168" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="E168" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F168" s="1">
-        <v>1</v>
-      </c>
-      <c r="G168" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="J168" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N168" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O168" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="P168" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B169" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="C169" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="E169" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F169" s="1">
-        <v>1</v>
-      </c>
-      <c r="G169" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="J169" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N169" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O169" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="P169" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B171" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="C171" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="E171" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F171" s="1">
-        <v>1</v>
-      </c>
-      <c r="G171" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="J171" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N171" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O171" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="P171" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B172" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="C172" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="E172" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F172" s="1">
-        <v>1</v>
-      </c>
-      <c r="G172" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="J172" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N172" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O172" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="P172" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B173" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="C173" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="E173" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F173" s="1">
-        <v>1</v>
-      </c>
-      <c r="G173" s="1" t="s">
-        <v>239</v>
       </c>
       <c r="J173" s="1" t="s">
         <v>4</v>
@@ -8647,18 +8650,18 @@
         <v>1</v>
       </c>
       <c r="O173" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="P173" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B174" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E174" s="1" t="s">
         <v>4</v>
@@ -8667,7 +8670,7 @@
         <v>1</v>
       </c>
       <c r="G174" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J174" s="1" t="s">
         <v>2</v>
@@ -8676,18 +8679,18 @@
         <v>1</v>
       </c>
       <c r="O174" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="P174" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="175" spans="2:16" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="175" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B175" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E175" s="1" t="s">
         <v>4</v>
@@ -8696,7 +8699,7 @@
         <v>1</v>
       </c>
       <c r="G175" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J175" s="1" t="s">
         <v>4</v>
@@ -8711,18 +8714,18 @@
         <v>1</v>
       </c>
       <c r="O175" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="P175" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B177" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E177" s="1" t="s">
         <v>4</v>
@@ -8731,7 +8734,7 @@
         <v>1</v>
       </c>
       <c r="G177" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J177" s="1" t="s">
         <v>2</v>
@@ -8740,18 +8743,18 @@
         <v>1</v>
       </c>
       <c r="O177" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="P177" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B178" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E178" s="1" t="s">
         <v>4</v>
@@ -8760,7 +8763,7 @@
         <v>1</v>
       </c>
       <c r="G178" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J178" s="1" t="s">
         <v>4</v>
@@ -8775,57 +8778,57 @@
         <v>1</v>
       </c>
       <c r="O178" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="P178" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B179" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F179" s="1">
+        <v>1</v>
+      </c>
+      <c r="G179" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="J179" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N179" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O179" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="P179" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B180" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F180" s="1">
+        <v>1</v>
+      </c>
+      <c r="G180" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="P178" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B179" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C179" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="E179" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F179" s="1">
-        <v>1</v>
-      </c>
-      <c r="G179" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="J179" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N179" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O179" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="P179" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B180" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C180" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="E180" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F180" s="1">
-        <v>1</v>
-      </c>
-      <c r="G180" s="1" t="s">
-        <v>221</v>
-      </c>
       <c r="J180" s="1" t="s">
         <v>2</v>
       </c>
@@ -8833,18 +8836,18 @@
         <v>1</v>
       </c>
       <c r="O180" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="P180" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B181" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E181" s="1" t="s">
         <v>4</v>
@@ -8853,7 +8856,7 @@
         <v>1</v>
       </c>
       <c r="G181" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J181" s="1" t="s">
         <v>2</v>
@@ -8862,18 +8865,18 @@
         <v>1</v>
       </c>
       <c r="O181" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P181" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B183" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E183" s="1" t="s">
         <v>4</v>
@@ -8882,7 +8885,7 @@
         <v>1</v>
       </c>
       <c r="G183" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J183" s="1" t="s">
         <v>2</v>
@@ -8891,18 +8894,18 @@
         <v>1</v>
       </c>
       <c r="O183" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="P183" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B184" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E184" s="1" t="s">
         <v>4</v>
@@ -8911,7 +8914,7 @@
         <v>1</v>
       </c>
       <c r="G184" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J184" s="1" t="s">
         <v>2</v>
@@ -8920,18 +8923,18 @@
         <v>1</v>
       </c>
       <c r="O184" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="P184" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B185" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E185" s="1" t="s">
         <v>4</v>
@@ -8940,7 +8943,7 @@
         <v>1</v>
       </c>
       <c r="G185" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J185" s="1" t="s">
         <v>2</v>
@@ -8949,18 +8952,18 @@
         <v>1</v>
       </c>
       <c r="O185" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="P185" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B186" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E186" s="1" t="s">
         <v>4</v>
@@ -8969,7 +8972,7 @@
         <v>1</v>
       </c>
       <c r="G186" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J186" s="1" t="s">
         <v>2</v>
@@ -8978,18 +8981,18 @@
         <v>1</v>
       </c>
       <c r="O186" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="P186" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B187" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E187" s="1" t="s">
         <v>4</v>
@@ -8998,7 +9001,7 @@
         <v>1</v>
       </c>
       <c r="G187" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J187" s="1" t="s">
         <v>2</v>
@@ -9007,18 +9010,18 @@
         <v>1</v>
       </c>
       <c r="O187" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="P187" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B189" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E189" s="1" t="s">
         <v>4</v>
@@ -9027,7 +9030,7 @@
         <v>1</v>
       </c>
       <c r="G189" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J189" s="1" t="s">
         <v>2</v>
@@ -9036,18 +9039,18 @@
         <v>1</v>
       </c>
       <c r="O189" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P189" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B190" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E190" s="1" t="s">
         <v>4</v>
@@ -9056,7 +9059,7 @@
         <v>1</v>
       </c>
       <c r="G190" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J190" s="1" t="s">
         <v>2</v>
@@ -9065,7 +9068,7 @@
         <v>1</v>
       </c>
       <c r="O190" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="P190" s="1" t="s">
         <v>0</v>

--- a/H_SK_PRD.xlsx
+++ b/H_SK_PRD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adamellery/Git/ptcheck_compares/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python\ptcheck_compares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{596AE4F8-EA4E-E541-9BFD-F3D9E3261962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD7D5C27-B0E2-4BC9-B6FD-9EF7C9E11D17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21800" yWindow="580" windowWidth="26940" windowHeight="26920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Analog" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1650" uniqueCount="718">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1658" uniqueCount="719">
   <si>
     <t>Horizon</t>
   </si>
@@ -298,9 +298,6 @@
     <t>H_SK_PT132</t>
   </si>
   <si>
-    <t>40121 unsign 16 int</t>
-  </si>
-  <si>
     <t>H_SK Pump-003 Suction Pressure</t>
   </si>
   <si>
@@ -361,9 +358,6 @@
     <t>H_SK_PT012</t>
   </si>
   <si>
-    <t>40114 unsign 16 int</t>
-  </si>
-  <si>
     <t>H_SK Station Outlet Pressure Control</t>
   </si>
   <si>
@@ -2134,9 +2128,6 @@
     <t>40084/14</t>
   </si>
   <si>
-    <t>H_SK TT905 Temperature High</t>
-  </si>
-  <si>
     <t>H_SK_TAH905</t>
   </si>
   <si>
@@ -2186,6 +2177,18 @@
   </si>
   <si>
     <t>H_SK Control Room Temperature2</t>
+  </si>
+  <si>
+    <t>40114 unsign 32 int</t>
+  </si>
+  <si>
+    <t>40121 unsign 67 int</t>
+  </si>
+  <si>
+    <t>H_SK TT905 Temperature High High</t>
+  </si>
+  <si>
+    <t>H_SK TT905 Temperature Low2</t>
   </si>
 </sst>
 </file>
@@ -2540,33 +2543,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="56.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="56.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.7109375" style="1" customWidth="1"/>
     <col min="5" max="6" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="2.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="2.6640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="5.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="2.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="2.7109375" style="1" customWidth="1"/>
     <col min="15" max="15" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.1640625" style="1"/>
+    <col min="16" max="16" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -2584,9 +2587,9 @@
       <c r="O1" s="4"/>
       <c r="P1" s="4"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -2604,7 +2607,7 @@
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -2622,9 +2625,9 @@
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -2642,57 +2645,57 @@
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K5" s="3"/>
       <c r="L5" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="N5" s="3"/>
       <c r="O5" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E9" s="1">
         <v>0</v>
@@ -2701,19 +2704,19 @@
         <v>23</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="O9" s="1" t="s">
         <v>1</v>
@@ -2722,12 +2725,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>
@@ -2736,19 +2739,19 @@
         <v>59</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>4</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="O10" s="1" t="s">
         <v>1</v>
@@ -2757,12 +2760,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E11" s="1">
         <v>0</v>
@@ -2771,19 +2774,19 @@
         <v>59</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>4</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="O11" s="1" t="s">
         <v>1</v>
@@ -2792,12 +2795,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
@@ -2809,13 +2812,13 @@
         <v>4</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>4</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="O12" s="1" t="s">
         <v>1</v>
@@ -2824,12 +2827,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
@@ -2841,13 +2844,13 @@
         <v>4</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>4</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O13" s="1" t="s">
         <v>1</v>
@@ -2856,12 +2859,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E15" s="1">
         <v>2015</v>
@@ -2873,13 +2876,13 @@
         <v>4</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>4</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="O15" s="1" t="s">
         <v>1</v>
@@ -2888,12 +2891,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E16" s="1">
         <v>0</v>
@@ -2902,19 +2905,19 @@
         <v>7</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>4</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O16" s="1" t="s">
         <v>1</v>
@@ -2923,12 +2926,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E17" s="1">
         <v>0</v>
@@ -2937,13 +2940,13 @@
         <v>1440</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L17" s="1" t="s">
         <v>2</v>
@@ -2955,18 +2958,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E18" s="1">
         <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>7000</v>
+        <v>1212</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>42</v>
@@ -2975,7 +2978,7 @@
         <v>4</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="L18" s="1" t="s">
         <v>2</v>
@@ -2987,12 +2990,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E19" s="1">
         <v>0</v>
@@ -3007,7 +3010,7 @@
         <v>4</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="L19" s="1" t="s">
         <v>2</v>
@@ -3019,12 +3022,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E21" s="1">
         <v>0</v>
@@ -3039,7 +3042,7 @@
         <v>4</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L21" s="1" t="s">
         <v>2</v>
@@ -3051,12 +3054,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E22" s="1">
         <v>0</v>
@@ -3071,7 +3074,7 @@
         <v>4</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="L22" s="1" t="s">
         <v>2</v>
@@ -3083,12 +3086,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E23" s="1">
         <v>0</v>
@@ -3103,7 +3106,7 @@
         <v>4</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="L23" s="1" t="s">
         <v>2</v>
@@ -3115,12 +3118,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E24" s="1">
         <v>0</v>
@@ -3135,7 +3138,7 @@
         <v>4</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L24" s="1" t="s">
         <v>2</v>
@@ -3147,12 +3150,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E25" s="1">
         <v>0</v>
@@ -3167,7 +3170,7 @@
         <v>4</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>109</v>
+        <v>715</v>
       </c>
       <c r="L25" s="1" t="s">
         <v>2</v>
@@ -3179,12 +3182,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E27" s="1">
         <v>0</v>
@@ -3199,7 +3202,7 @@
         <v>4</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L27" s="1" t="s">
         <v>2</v>
@@ -3211,12 +3214,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E28" s="1">
         <v>0</v>
@@ -3231,7 +3234,7 @@
         <v>4</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L28" s="1" t="s">
         <v>2</v>
@@ -3243,12 +3246,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E29" s="1">
         <v>0</v>
@@ -3263,7 +3266,7 @@
         <v>4</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L29" s="1" t="s">
         <v>2</v>
@@ -3275,12 +3278,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E30" s="1">
         <v>0</v>
@@ -3295,7 +3298,7 @@
         <v>4</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L30" s="1" t="s">
         <v>2</v>
@@ -3307,12 +3310,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E31" s="1">
         <v>0</v>
@@ -3327,7 +3330,7 @@
         <v>4</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L31" s="1" t="s">
         <v>2</v>
@@ -3339,12 +3342,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E33" s="1">
         <v>0</v>
@@ -3359,7 +3362,7 @@
         <v>4</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L33" s="1" t="s">
         <v>2</v>
@@ -3371,12 +3374,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E34" s="1">
         <v>0</v>
@@ -3391,7 +3394,7 @@
         <v>4</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>88</v>
+        <v>716</v>
       </c>
       <c r="L34" s="1" t="s">
         <v>2</v>
@@ -3403,7 +3406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>87</v>
       </c>
@@ -3432,10 +3435,10 @@
         <v>1</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
         <v>84</v>
       </c>
@@ -3467,7 +3470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
         <v>81</v>
       </c>
@@ -3499,7 +3502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
         <v>78</v>
       </c>
@@ -3531,7 +3534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
         <v>75</v>
       </c>
@@ -3563,7 +3566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
         <v>72</v>
       </c>
@@ -3595,7 +3598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
         <v>69</v>
       </c>
@@ -3627,7 +3630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
         <v>66</v>
       </c>
@@ -3662,7 +3665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
         <v>62</v>
       </c>
@@ -3697,7 +3700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
         <v>58</v>
       </c>
@@ -3729,7 +3732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
         <v>55</v>
       </c>
@@ -3761,7 +3764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
         <v>51</v>
       </c>
@@ -3793,7 +3796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
         <v>48</v>
       </c>
@@ -3825,7 +3828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3857,7 +3860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
         <v>40</v>
       </c>
@@ -3889,7 +3892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
         <v>36</v>
       </c>
@@ -3921,7 +3924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
         <v>33</v>
       </c>
@@ -3956,7 +3959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
         <v>28</v>
       </c>
@@ -3988,7 +3991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
         <v>25</v>
       </c>
@@ -4020,7 +4023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B58" s="1" t="s">
         <v>22</v>
       </c>
@@ -4052,7 +4055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B59" s="1" t="s">
         <v>18</v>
       </c>
@@ -4084,7 +4087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="s">
         <v>15</v>
       </c>
@@ -4119,7 +4122,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B61" s="1" t="s">
         <v>9</v>
       </c>
@@ -4151,12 +4154,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B63" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="E63" s="1">
         <v>0</v>
@@ -4195,29 +4198,29 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="29" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.7109375" style="1" customWidth="1"/>
     <col min="5" max="6" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="2.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="2.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.7109375" style="1" customWidth="1"/>
     <col min="11" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="2.6640625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="2.6640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="2.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="2.7109375" style="1" customWidth="1"/>
     <col min="15" max="15" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.6640625" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.1640625" style="1"/>
+    <col min="16" max="16" width="6.7109375" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -4235,9 +4238,9 @@
       <c r="O1" s="4"/>
       <c r="P1" s="4"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -4255,7 +4258,7 @@
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -4273,9 +4276,9 @@
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -4293,52 +4296,52 @@
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="L5" s="3"/>
       <c r="M5" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="N5" s="3"/>
       <c r="O5" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -4349,33 +4352,35 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:P190"/>
+  <dimension ref="A1:P191"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="56.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="56.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" style="1" customWidth="1"/>
     <col min="7" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="2.6640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="2.7109375" style="1" customWidth="1"/>
     <col min="14" max="14" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.1640625" style="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -4393,9 +4398,9 @@
       <c r="O1" s="4"/>
       <c r="P1" s="4"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -4413,7 +4418,7 @@
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -4431,9 +4436,9 @@
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -4451,59 +4456,59 @@
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="M5" s="3"/>
       <c r="N5" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>4</v>
@@ -4512,7 +4517,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>2</v>
@@ -4521,77 +4526,77 @@
         <v>1</v>
       </c>
       <c r="O9" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
         <v>698</v>
       </c>
-      <c r="P9" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B10" s="1" t="s">
-        <v>704</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>703</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="1">
-        <v>1</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>702</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O10" s="1" t="s">
+      <c r="C11" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>694</v>
       </c>
-      <c r="P10" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B11" s="1" t="s">
-        <v>701</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>700</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" s="1">
-        <v>1</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>699</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>698</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B12" s="1" t="s">
-        <v>697</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>696</v>
-      </c>
       <c r="E12" s="1" t="s">
         <v>4</v>
       </c>
@@ -4599,2837 +4604,2837 @@
         <v>1</v>
       </c>
       <c r="G12" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
         <v>695</v>
       </c>
-      <c r="J12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>694</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="J13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O13" s="1" t="s">
         <v>692</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F13" s="1">
-        <v>1</v>
-      </c>
-      <c r="G13" s="1" t="s">
+      <c r="P13" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="J13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O13" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>690</v>
       </c>
-      <c r="P13" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B15" s="1" t="s">
+      <c r="E14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>689</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="J14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O14" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" s="1">
-        <v>1</v>
-      </c>
-      <c r="G15" s="1" t="s">
+      <c r="P14" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
         <v>687</v>
       </c>
-      <c r="J15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O15" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>686</v>
       </c>
-      <c r="P15" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B16" s="1" t="s">
+      <c r="E16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>685</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="J16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O16" s="1" t="s">
         <v>684</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F16" s="1">
-        <v>1</v>
-      </c>
-      <c r="G16" s="1" t="s">
+      <c r="P16" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
         <v>683</v>
       </c>
-      <c r="J16" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O16" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>682</v>
       </c>
-      <c r="P16" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B17" s="1" t="s">
+      <c r="E17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>681</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="J17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O17" s="1" t="s">
         <v>680</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F17" s="1">
-        <v>1</v>
-      </c>
-      <c r="G17" s="1" t="s">
+      <c r="P17" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
         <v>679</v>
       </c>
-      <c r="J17" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O17" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="P17" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B18" s="1" t="s">
+      <c r="E18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>677</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="J18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O18" s="1" t="s">
         <v>676</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F18" s="1">
-        <v>1</v>
-      </c>
-      <c r="G18" s="1" t="s">
+      <c r="P18" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
         <v>675</v>
       </c>
-      <c r="J18" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O18" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>674</v>
       </c>
-      <c r="P18" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B19" s="1" t="s">
+      <c r="E19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>673</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="J19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O19" s="1" t="s">
         <v>672</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F19" s="1">
-        <v>1</v>
-      </c>
-      <c r="G19" s="1" t="s">
+      <c r="P19" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
         <v>671</v>
       </c>
-      <c r="J19" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O19" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>670</v>
       </c>
-      <c r="P19" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B21" s="1" t="s">
+      <c r="E20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>669</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="J20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O20" s="1" t="s">
         <v>668</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F21" s="1">
-        <v>1</v>
-      </c>
-      <c r="G21" s="1" t="s">
+      <c r="P20" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
         <v>667</v>
       </c>
-      <c r="J21" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N21" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O21" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>666</v>
       </c>
-      <c r="P21" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B22" s="1" t="s">
+      <c r="E22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>665</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="J22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O22" s="1" t="s">
         <v>664</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F22" s="1">
-        <v>1</v>
-      </c>
-      <c r="G22" s="1" t="s">
+      <c r="P22" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
         <v>663</v>
       </c>
-      <c r="J22" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N22" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O22" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>662</v>
       </c>
-      <c r="P22" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B23" s="1" t="s">
+      <c r="E23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>661</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="J23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O23" s="1" t="s">
         <v>660</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F23" s="1">
-        <v>1</v>
-      </c>
-      <c r="G23" s="1" t="s">
+      <c r="P23" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
         <v>659</v>
       </c>
-      <c r="J23" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N23" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O23" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="P23" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B24" s="1" t="s">
+      <c r="E24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>657</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="J24" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O24" s="1" t="s">
         <v>656</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F24" s="1">
-        <v>1</v>
-      </c>
-      <c r="G24" s="1" t="s">
+      <c r="P24" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
         <v>655</v>
       </c>
-      <c r="J24" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N24" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O24" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>654</v>
       </c>
-      <c r="P24" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B25" s="1" t="s">
+      <c r="E25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" s="1">
+        <v>1</v>
+      </c>
+      <c r="G25" s="1" t="s">
         <v>653</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="J25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O25" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F25" s="1">
-        <v>1</v>
-      </c>
-      <c r="G25" s="1" t="s">
+      <c r="P25" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
         <v>651</v>
       </c>
-      <c r="J25" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K25" s="1">
+      <c r="C26" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K26" s="1">
         <v>1074</v>
       </c>
-      <c r="L25" s="1">
+      <c r="L26" s="1">
         <v>1075</v>
       </c>
-      <c r="N25" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O25" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="P25" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B27" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F27" s="1">
-        <v>1</v>
-      </c>
-      <c r="G27" s="1" t="s">
+      <c r="N26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
         <v>648</v>
       </c>
-      <c r="J27" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N27" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O27" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="P27" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B28" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="E28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28" s="1">
+        <v>1</v>
+      </c>
+      <c r="G28" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F28" s="1">
-        <v>1</v>
-      </c>
-      <c r="G28" s="1" t="s">
+      <c r="J28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="J28" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N28" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O28" s="1" t="s">
+      <c r="C29" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29" s="1">
+        <v>1</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F30" s="1">
+        <v>1</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F31" s="1">
+        <v>1</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" s="1">
+        <v>1</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B34" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F34" s="1">
+        <v>1</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K34" s="1">
+        <v>1070</v>
+      </c>
+      <c r="L34" s="1">
+        <v>1071</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B35" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F35" s="1">
+        <v>1</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B36" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F36" s="1">
+        <v>1</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B37" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F37" s="1">
+        <v>1</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="P37" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B38" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F38" s="1">
+        <v>1</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O38" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="P38" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B40" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F40" s="1">
+        <v>1</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="P40" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B41" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F41" s="1">
+        <v>1</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K41" s="1">
+        <v>1072</v>
+      </c>
+      <c r="L41" s="1">
+        <v>1073</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O41" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="P41" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B42" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F42" s="1">
+        <v>1</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="P42" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B43" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="P28" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B29" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>643</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F29" s="1">
-        <v>1</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>642</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N29" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O29" s="1" t="s">
+      <c r="E43" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F43" s="1">
+        <v>1</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="P43" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B44" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="P29" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B30" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F30" s="1">
-        <v>1</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>639</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N30" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O30" s="1" t="s">
+      <c r="E44" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F44" s="1">
+        <v>1</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N44" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O44" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="P44" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B46" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="P30" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B31" s="1" t="s">
-        <v>638</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F31" s="1">
-        <v>1</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>636</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N31" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O31" s="1" t="s">
-        <v>635</v>
-      </c>
-      <c r="P31" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B33" s="1" t="s">
-        <v>634</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>633</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F33" s="1">
-        <v>1</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>632</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K33" s="1">
-        <v>1070</v>
-      </c>
-      <c r="L33" s="1">
-        <v>1071</v>
-      </c>
-      <c r="N33" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O33" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="P33" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B34" s="1" t="s">
-        <v>631</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>630</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F34" s="1">
-        <v>1</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>629</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N34" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O34" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="P34" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B35" s="1" t="s">
-        <v>628</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F35" s="1">
-        <v>1</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N35" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O35" s="1" t="s">
-        <v>607</v>
-      </c>
-      <c r="P35" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B36" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>624</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F36" s="1">
-        <v>1</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>623</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N36" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O36" s="1" t="s">
-        <v>603</v>
-      </c>
-      <c r="P36" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B37" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>621</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F37" s="1">
-        <v>1</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N37" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O37" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="P37" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B39" s="1" t="s">
-        <v>619</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F39" s="1">
-        <v>1</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N39" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O39" s="1" t="s">
+      <c r="E46" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F46" s="1">
+        <v>1</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N46" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O46" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="P46" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B47" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="P39" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B40" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F40" s="1">
-        <v>1</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>614</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K40" s="1">
-        <v>1072</v>
-      </c>
-      <c r="L40" s="1">
-        <v>1073</v>
-      </c>
-      <c r="N40" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O40" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="P40" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B41" s="1" t="s">
-        <v>613</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>612</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F41" s="1">
-        <v>1</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N41" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O41" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="P41" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B42" s="1" t="s">
-        <v>610</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F42" s="1">
-        <v>1</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>608</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N42" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O42" s="1" t="s">
-        <v>607</v>
-      </c>
-      <c r="P42" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B43" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F43" s="1">
-        <v>1</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N43" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O43" s="1" t="s">
-        <v>603</v>
-      </c>
-      <c r="P43" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B45" s="1" t="s">
-        <v>602</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>601</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F45" s="1">
-        <v>1</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N45" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O45" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="P45" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B46" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F46" s="1">
-        <v>1</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N46" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O46" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="P46" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B47" s="1" t="s">
+      <c r="E47" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F47" s="1">
+        <v>1</v>
+      </c>
+      <c r="G47" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="J47" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N47" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O47" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="E47" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F47" s="1">
-        <v>1</v>
-      </c>
-      <c r="G47" s="1" t="s">
+      <c r="P47" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B48" s="1" t="s">
         <v>592</v>
       </c>
-      <c r="J47" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N47" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O47" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="P47" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B48" s="1" t="s">
+      <c r="C48" s="1" t="s">
         <v>591</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="E48" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F48" s="1">
+        <v>1</v>
+      </c>
+      <c r="G48" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="E48" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F48" s="1">
-        <v>1</v>
-      </c>
-      <c r="G48" s="1" t="s">
+      <c r="J48" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N48" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O48" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="P48" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B49" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="J48" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N48" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O48" s="1" t="s">
+      <c r="C49" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F49" s="1">
+        <v>1</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N49" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O49" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="P49" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B50" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F50" s="1">
+        <v>1</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N50" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O50" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="P50" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B52" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F52" s="1">
+        <v>1</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N52" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O52" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="P52" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B53" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F53" s="1">
+        <v>1</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N53" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O53" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="P53" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B54" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F54" s="1">
+        <v>1</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N54" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O54" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="P54" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B55" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F55" s="1">
+        <v>1</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N55" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O55" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="P55" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B56" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F56" s="1">
+        <v>1</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N56" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O56" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="P56" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B58" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F58" s="1">
+        <v>1</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N58" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O58" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="P58" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B59" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F59" s="1">
+        <v>1</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N59" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O59" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="P59" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B60" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F60" s="1">
+        <v>1</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N60" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O60" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="P60" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B61" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F61" s="1">
+        <v>1</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N61" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O61" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="P61" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B62" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F62" s="1">
+        <v>1</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N62" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O62" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="P62" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B64" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F64" s="1">
+        <v>1</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N64" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O64" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="P64" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B65" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F65" s="1">
+        <v>1</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N65" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O65" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="P65" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B66" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="P48" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B49" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>587</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F49" s="1">
-        <v>1</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N49" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O49" s="1" t="s">
+      <c r="E66" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F66" s="1">
+        <v>1</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N66" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O66" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="P66" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B67" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="P49" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B51" s="1" t="s">
-        <v>585</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F51" s="1">
-        <v>1</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="J51" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N51" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O51" s="1" t="s">
+      <c r="E67" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F67" s="1">
+        <v>1</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N67" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O67" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="P67" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B68" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="P51" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B52" s="1" t="s">
-        <v>582</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>581</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F52" s="1">
-        <v>1</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="J52" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N52" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O52" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="P52" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B53" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F53" s="1">
-        <v>1</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="J53" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N53" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O53" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="P53" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B54" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F54" s="1">
-        <v>1</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="J54" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N54" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O54" s="1" t="s">
+      <c r="E68" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F68" s="1">
+        <v>1</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N68" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O68" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="P68" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B70" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F70" s="1">
+        <v>1</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N70" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O70" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="P70" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B71" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F71" s="1">
+        <v>1</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N71" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O71" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="P71" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B72" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="P54" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B55" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F55" s="1">
-        <v>1</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="J55" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N55" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O55" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="P55" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B57" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F57" s="1">
-        <v>1</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="J57" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N57" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O57" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="P57" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B58" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F58" s="1">
-        <v>1</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="J58" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N58" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O58" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="P58" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B59" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F59" s="1">
-        <v>1</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="J59" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N59" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O59" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="P59" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B60" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F60" s="1">
-        <v>1</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="J60" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N60" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O60" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="P60" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B61" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>557</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F61" s="1">
-        <v>1</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="J61" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N61" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O61" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="P61" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B63" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F63" s="1">
-        <v>1</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>553</v>
-      </c>
-      <c r="J63" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N63" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O63" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="P63" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B64" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F64" s="1">
-        <v>1</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="J64" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N64" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O64" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="P64" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B65" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F65" s="1">
-        <v>1</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="J65" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N65" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O65" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="P65" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B66" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F66" s="1">
-        <v>1</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="J66" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N66" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O66" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="P66" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B67" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F67" s="1">
-        <v>1</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="J67" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N67" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O67" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="P67" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B69" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F69" s="1">
-        <v>1</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="J69" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N69" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O69" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="P69" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B70" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F70" s="1">
-        <v>1</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="J70" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N70" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O70" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="P70" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B71" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F71" s="1">
-        <v>1</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="J71" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N71" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O71" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="P71" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B72" s="1" t="s">
+      <c r="E72" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F72" s="1">
+        <v>1</v>
+      </c>
+      <c r="G72" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="J72" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N72" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O72" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="E72" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F72" s="1">
-        <v>2</v>
-      </c>
-      <c r="G72" s="1" t="s">
+      <c r="P72" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B73" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="H72" s="1" t="s">
+      <c r="C73" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="J72" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K72" s="1">
+      <c r="E73" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F73" s="1">
+        <v>2</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K73" s="1">
         <v>1036</v>
       </c>
-      <c r="L72" s="1">
+      <c r="L73" s="1">
         <v>1037</v>
       </c>
-      <c r="N72" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O72" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="P72" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B73" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F73" s="1">
-        <v>2</v>
-      </c>
-      <c r="G73" s="1" t="s">
+      <c r="N73" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O73" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="P73" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B74" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="H73" s="1" t="s">
+      <c r="C74" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="J73" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K73" s="1">
+      <c r="E74" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F74" s="1">
+        <v>2</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K74" s="1">
         <v>1038</v>
       </c>
-      <c r="L73" s="1">
+      <c r="L74" s="1">
         <v>1039</v>
       </c>
-      <c r="N73" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O73" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="P73" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B75" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F75" s="1">
-        <v>2</v>
-      </c>
-      <c r="G75" s="1" t="s">
+      <c r="N74" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O74" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="P74" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B76" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="H75" s="1" t="s">
+      <c r="C76" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="J75" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K75" s="1">
+      <c r="E76" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F76" s="1">
+        <v>2</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K76" s="1">
         <v>1040</v>
       </c>
-      <c r="L75" s="1">
+      <c r="L76" s="1">
         <v>1041</v>
       </c>
-      <c r="N75" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O75" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="P75" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B76" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F76" s="1">
-        <v>2</v>
-      </c>
-      <c r="G76" s="1" t="s">
+      <c r="N76" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O76" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="P76" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B77" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="H76" s="1" t="s">
+      <c r="C77" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="J76" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K76" s="1">
+      <c r="E77" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F77" s="1">
+        <v>2</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K77" s="1">
         <v>1042</v>
       </c>
-      <c r="L76" s="1">
+      <c r="L77" s="1">
         <v>1043</v>
       </c>
-      <c r="N76" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O76" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="P76" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B77" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F77" s="1">
-        <v>2</v>
-      </c>
-      <c r="G77" s="1" t="s">
+      <c r="N77" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O77" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="P77" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B78" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="H77" s="1" t="s">
+      <c r="C78" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="J77" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K77" s="1">
+      <c r="E78" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F78" s="1">
+        <v>2</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K78" s="1">
         <v>1044</v>
       </c>
-      <c r="L77" s="1">
+      <c r="L78" s="1">
         <v>1045</v>
       </c>
-      <c r="N77" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O77" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="P77" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B78" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F78" s="1">
-        <v>2</v>
-      </c>
-      <c r="G78" s="1" t="s">
+      <c r="N78" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O78" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="P78" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B79" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="H78" s="1" t="s">
+      <c r="C79" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="J78" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K78" s="1">
+      <c r="E79" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F79" s="1">
+        <v>2</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K79" s="1">
         <v>1046</v>
       </c>
-      <c r="L78" s="1">
+      <c r="L79" s="1">
         <v>1047</v>
       </c>
-      <c r="N78" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O78" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="P78" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B79" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F79" s="1">
-        <v>1</v>
-      </c>
-      <c r="G79" s="1" t="s">
+      <c r="N79" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O79" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="P79" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B80" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="J79" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K79" s="1">
+      <c r="C80" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F80" s="1">
+        <v>1</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K80" s="1">
         <v>1050</v>
       </c>
-      <c r="N79" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O79" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="P79" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B81" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F81" s="1">
-        <v>1</v>
-      </c>
-      <c r="G81" s="1" t="s">
+      <c r="N80" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O80" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="P80" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B82" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="J81" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K81" s="1">
+      <c r="C82" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F82" s="1">
+        <v>1</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K82" s="1">
         <v>1052</v>
       </c>
-      <c r="N81" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O81" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="P81" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B82" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F82" s="1">
-        <v>2</v>
-      </c>
-      <c r="G82" s="1" t="s">
+      <c r="N82" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O82" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="P82" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B83" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="H82" s="1" t="s">
+      <c r="C83" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="J82" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K82" s="1">
+      <c r="E83" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F83" s="1">
+        <v>2</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K83" s="1">
         <v>1020</v>
       </c>
-      <c r="L82" s="1">
+      <c r="L83" s="1">
         <v>1021</v>
       </c>
-      <c r="N82" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O82" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="P82" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B83" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F83" s="1">
-        <v>2</v>
-      </c>
-      <c r="G83" s="1" t="s">
+      <c r="N83" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O83" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="P83" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B84" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="H83" s="1" t="s">
+      <c r="C84" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="J83" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K83" s="1">
+      <c r="E84" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F84" s="1">
+        <v>2</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K84" s="1">
         <v>1022</v>
       </c>
-      <c r="L83" s="1">
+      <c r="L84" s="1">
         <v>1023</v>
       </c>
-      <c r="N83" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O83" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="P83" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B84" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F84" s="1">
-        <v>2</v>
-      </c>
-      <c r="G84" s="1" t="s">
+      <c r="N84" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O84" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="P84" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B85" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="H84" s="1" t="s">
+      <c r="C85" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="J84" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K84" s="1">
+      <c r="E85" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F85" s="1">
+        <v>2</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K85" s="1">
         <v>1024</v>
       </c>
-      <c r="L84" s="1">
+      <c r="L85" s="1">
         <v>1025</v>
       </c>
-      <c r="N84" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O84" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="P84" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B85" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F85" s="1">
-        <v>2</v>
-      </c>
-      <c r="G85" s="1" t="s">
+      <c r="N85" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O85" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="P85" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B86" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="H85" s="1" t="s">
+      <c r="C86" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="J85" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K85" s="1">
+      <c r="E86" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F86" s="1">
+        <v>2</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K86" s="1">
         <v>1026</v>
       </c>
-      <c r="L85" s="1">
+      <c r="L86" s="1">
         <v>1027</v>
       </c>
-      <c r="N85" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O85" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="P85" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B87" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F87" s="1">
-        <v>2</v>
-      </c>
-      <c r="G87" s="1" t="s">
+      <c r="N86" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O86" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="P86" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B88" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="H87" s="1" t="s">
+      <c r="C88" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="J87" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K87" s="1">
+      <c r="E88" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F88" s="1">
+        <v>2</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K88" s="1">
         <v>1028</v>
       </c>
-      <c r="L87" s="1">
+      <c r="L88" s="1">
         <v>1029</v>
       </c>
-      <c r="N87" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O87" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="P87" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B88" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F88" s="1">
-        <v>2</v>
-      </c>
-      <c r="G88" s="1" t="s">
+      <c r="N88" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O88" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="P88" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B89" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="H88" s="1" t="s">
+      <c r="C89" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="J88" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K88" s="1">
+      <c r="E89" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F89" s="1">
+        <v>2</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K89" s="1">
         <v>1030</v>
       </c>
-      <c r="L88" s="1">
+      <c r="L89" s="1">
         <v>1031</v>
       </c>
-      <c r="N88" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O88" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="P88" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B89" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F89" s="1">
-        <v>1</v>
-      </c>
-      <c r="G89" s="1" t="s">
+      <c r="N89" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O89" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="P89" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B90" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="J89" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N89" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O89" s="1" t="s">
+      <c r="C90" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F90" s="1">
+        <v>1</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N90" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O90" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="P90" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B91" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F91" s="1">
+        <v>1</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N91" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O91" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="P91" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B92" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F92" s="1">
+        <v>1</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N92" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O92" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="P92" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B94" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F94" s="1">
+        <v>1</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="J94" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N94" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O94" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="P94" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B95" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F95" s="1">
+        <v>1</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="J95" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N95" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O95" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="P95" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B96" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F96" s="1">
+        <v>1</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="J96" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N96" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O96" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="P96" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B97" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F97" s="1">
+        <v>1</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="J97" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N97" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O97" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="P97" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B98" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F98" s="1">
+        <v>1</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="J98" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N98" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O98" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="P98" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B100" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F100" s="1">
+        <v>1</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="J100" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N100" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O100" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="P100" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B101" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F101" s="1">
+        <v>1</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="J101" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N101" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O101" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="P101" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B102" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F102" s="1">
+        <v>1</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J102" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N102" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O102" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="P102" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B103" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C103" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="P89" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B90" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F90" s="1">
-        <v>1</v>
-      </c>
-      <c r="G90" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="J90" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N90" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O90" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="P90" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B91" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F91" s="1">
-        <v>1</v>
-      </c>
-      <c r="G91" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="J91" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N91" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O91" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="P91" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B93" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F93" s="1">
-        <v>1</v>
-      </c>
-      <c r="G93" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="J93" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N93" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O93" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="P93" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B94" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F94" s="1">
-        <v>1</v>
-      </c>
-      <c r="G94" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="J94" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N94" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O94" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="P94" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B95" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F95" s="1">
-        <v>1</v>
-      </c>
-      <c r="G95" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="J95" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N95" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O95" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="P95" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B96" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F96" s="1">
-        <v>1</v>
-      </c>
-      <c r="G96" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="J96" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N96" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O96" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="P96" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B97" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F97" s="1">
-        <v>1</v>
-      </c>
-      <c r="G97" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="J97" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N97" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O97" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="P97" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B99" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F99" s="1">
-        <v>1</v>
-      </c>
-      <c r="G99" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="J99" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N99" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O99" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="P99" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B100" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F100" s="1">
-        <v>1</v>
-      </c>
-      <c r="G100" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="J100" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N100" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O100" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="P100" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B101" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F101" s="1">
-        <v>1</v>
-      </c>
-      <c r="G101" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="J101" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N101" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O101" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="P101" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B102" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F102" s="1">
-        <v>1</v>
-      </c>
-      <c r="G102" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="J102" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N102" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O102" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="P102" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B103" s="1" t="s">
+      <c r="E103" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F103" s="1">
+        <v>1</v>
+      </c>
+      <c r="G103" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="C103" s="1" t="s">
+      <c r="J103" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N103" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O103" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="E103" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F103" s="1">
-        <v>1</v>
-      </c>
-      <c r="G103" s="1" t="s">
+      <c r="P103" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B104" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="J103" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N103" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O103" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="P103" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B105" s="1" t="s">
+      <c r="C104" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="C105" s="1" t="s">
+      <c r="E104" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F104" s="1">
+        <v>1</v>
+      </c>
+      <c r="G104" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="E105" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F105" s="1">
-        <v>1</v>
-      </c>
-      <c r="G105" s="1" t="s">
+      <c r="J104" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N104" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O104" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="P104" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B106" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="J105" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N105" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O105" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="P105" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B106" s="1" t="s">
+      <c r="C106" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="E106" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F106" s="1">
+        <v>1</v>
+      </c>
+      <c r="G106" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="E106" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F106" s="1">
-        <v>1</v>
-      </c>
-      <c r="G106" s="1" t="s">
+      <c r="J106" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N106" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O106" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="P106" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B107" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="J106" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N106" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O106" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="P106" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B107" s="1" t="s">
+      <c r="C107" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="C107" s="1" t="s">
+      <c r="E107" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F107" s="1">
+        <v>1</v>
+      </c>
+      <c r="G107" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="E107" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F107" s="1">
-        <v>1</v>
-      </c>
-      <c r="G107" s="1" t="s">
+      <c r="J107" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N107" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O107" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="P107" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B108" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="J107" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N107" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O107" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="P107" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B108" s="1" t="s">
+      <c r="C108" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="C108" s="1" t="s">
+      <c r="E108" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F108" s="1">
+        <v>1</v>
+      </c>
+      <c r="G108" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="E108" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F108" s="1">
-        <v>1</v>
-      </c>
-      <c r="G108" s="1" t="s">
+      <c r="J108" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N108" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O108" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="P108" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B109" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="J108" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N108" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O108" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="P108" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B109" s="1" t="s">
+      <c r="C109" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="C109" s="1" t="s">
+      <c r="E109" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F109" s="1">
+        <v>1</v>
+      </c>
+      <c r="G109" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="E109" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F109" s="1">
-        <v>1</v>
-      </c>
-      <c r="G109" s="1" t="s">
+      <c r="J109" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N109" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O109" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="P109" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B110" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="J109" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N109" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O109" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="P109" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B111" s="1" t="s">
+      <c r="C110" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="C111" s="1" t="s">
+      <c r="E110" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F110" s="1">
+        <v>1</v>
+      </c>
+      <c r="G110" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="E111" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F111" s="1">
-        <v>1</v>
-      </c>
-      <c r="G111" s="1" t="s">
+      <c r="J110" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N110" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O110" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="P110" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B112" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="J111" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N111" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O111" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="P111" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B112" s="1" t="s">
+      <c r="C112" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="C112" s="1" t="s">
+      <c r="E112" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F112" s="1">
+        <v>1</v>
+      </c>
+      <c r="G112" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="E112" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F112" s="1">
-        <v>1</v>
-      </c>
-      <c r="G112" s="1" t="s">
+      <c r="J112" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N112" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O112" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="P112" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B113" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="J112" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N112" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O112" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="P112" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B113" s="1" t="s">
+      <c r="C113" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="C113" s="1" t="s">
+      <c r="E113" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F113" s="1">
+        <v>1</v>
+      </c>
+      <c r="G113" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="E113" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F113" s="1">
-        <v>1</v>
-      </c>
-      <c r="G113" s="1" t="s">
+      <c r="J113" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N113" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O113" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="P113" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B114" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="J113" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N113" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O113" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="P113" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B114" s="1" t="s">
+      <c r="C114" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="C114" s="1" t="s">
+      <c r="E114" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F114" s="1">
+        <v>1</v>
+      </c>
+      <c r="G114" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="E114" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F114" s="1">
-        <v>1</v>
-      </c>
-      <c r="G114" s="1" t="s">
+      <c r="J114" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N114" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O114" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="P114" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B115" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="J114" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N114" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O114" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="P114" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B115" s="1" t="s">
+      <c r="C115" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="C115" s="1" t="s">
+      <c r="E115" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F115" s="1">
+        <v>1</v>
+      </c>
+      <c r="G115" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="E115" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F115" s="1">
-        <v>1</v>
-      </c>
-      <c r="G115" s="1" t="s">
+      <c r="J115" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N115" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O115" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="P115" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B116" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="J115" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N115" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O115" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="P115" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B117" s="1" t="s">
+      <c r="C116" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="C117" s="1" t="s">
+      <c r="E116" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F116" s="1">
+        <v>1</v>
+      </c>
+      <c r="G116" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="E117" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F117" s="1">
-        <v>1</v>
-      </c>
-      <c r="G117" s="1" t="s">
+      <c r="J116" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N116" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O116" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="P116" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B118" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="J117" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N117" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O117" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="P117" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B118" s="1" t="s">
+      <c r="C118" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="C118" s="1" t="s">
+      <c r="E118" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F118" s="1">
+        <v>1</v>
+      </c>
+      <c r="G118" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="E118" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F118" s="1">
-        <v>1</v>
-      </c>
-      <c r="G118" s="1" t="s">
+      <c r="J118" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N118" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O118" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="P118" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B119" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="J118" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N118" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O118" s="1" t="s">
+      <c r="C119" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F119" s="1">
+        <v>1</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="J119" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N119" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O119" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="P119" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B120" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F120" s="1">
+        <v>1</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J120" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N120" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O120" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="P120" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B121" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C121" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="P118" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B119" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="E119" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F119" s="1">
-        <v>1</v>
-      </c>
-      <c r="G119" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="J119" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N119" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O119" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="P119" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B120" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="E120" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F120" s="1">
-        <v>1</v>
-      </c>
-      <c r="G120" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="J120" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N120" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O120" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="P120" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B121" s="1" t="s">
+      <c r="E121" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F121" s="1">
+        <v>1</v>
+      </c>
+      <c r="G121" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="C121" s="1" t="s">
+      <c r="J121" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N121" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O121" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="E121" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F121" s="1">
-        <v>1</v>
-      </c>
-      <c r="G121" s="1" t="s">
+      <c r="P121" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B122" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="J121" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N121" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O121" s="1" t="s">
+      <c r="C122" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="P121" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B123" s="1" t="s">
+      <c r="E122" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F122" s="1">
+        <v>1</v>
+      </c>
+      <c r="G122" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="C123" s="1" t="s">
+      <c r="J122" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N122" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O122" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="E123" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F123" s="1">
-        <v>1</v>
-      </c>
-      <c r="G123" s="1" t="s">
+      <c r="P122" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B124" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="J123" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N123" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O123" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="P123" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B124" s="1" t="s">
+      <c r="C124" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="C124" s="1" t="s">
+      <c r="E124" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F124" s="1">
+        <v>1</v>
+      </c>
+      <c r="G124" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="E124" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F124" s="1">
-        <v>1</v>
-      </c>
-      <c r="G124" s="1" t="s">
-        <v>379</v>
-      </c>
       <c r="J124" s="1" t="s">
         <v>2</v>
       </c>
@@ -7437,13 +7442,13 @@
         <v>1</v>
       </c>
       <c r="O124" s="1" t="s">
-        <v>373</v>
+        <v>217</v>
       </c>
       <c r="P124" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B125" s="1" t="s">
         <v>381</v>
       </c>
@@ -7457,1206 +7462,1200 @@
         <v>1</v>
       </c>
       <c r="G125" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="J125" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N125" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O125" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="P125" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B126" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="J125" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N125" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O125" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="P125" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="126" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B126" s="1" t="s">
+      <c r="C126" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="C126" s="1" t="s">
+      <c r="E126" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F126" s="1">
+        <v>1</v>
+      </c>
+      <c r="G126" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="E126" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F126" s="1">
-        <v>1</v>
-      </c>
-      <c r="G126" s="1" t="s">
+      <c r="J126" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N126" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O126" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="P126" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="127" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B127" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="J126" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N126" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O126" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="P126" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B127" s="1" t="s">
+      <c r="C127" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="C127" s="1" t="s">
+      <c r="E127" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F127" s="1">
+        <v>1</v>
+      </c>
+      <c r="G127" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="E127" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F127" s="1">
-        <v>1</v>
-      </c>
-      <c r="G127" s="1" t="s">
+      <c r="J127" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N127" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O127" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="P127" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B128" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F128" s="1">
+        <v>1</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="J128" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N128" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O128" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="P128" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B130" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="J127" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N127" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O127" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="P127" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B129" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="E129" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F129" s="1">
-        <v>1</v>
-      </c>
-      <c r="G129" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="J129" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N129" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O129" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="P129" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="130" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B130" s="1" t="s">
+      <c r="C130" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="C130" s="1" t="s">
+      <c r="E130" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F130" s="1">
+        <v>1</v>
+      </c>
+      <c r="G130" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="E130" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F130" s="1">
-        <v>1</v>
-      </c>
-      <c r="G130" s="1" t="s">
+      <c r="J130" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N130" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O130" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="P130" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="131" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B131" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="J130" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N130" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O130" s="1" t="s">
+      <c r="C131" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="P130" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B131" s="1" t="s">
+      <c r="E131" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F131" s="1">
+        <v>1</v>
+      </c>
+      <c r="G131" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C131" s="1" t="s">
+      <c r="J131" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N131" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O131" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="E131" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F131" s="1">
-        <v>1</v>
-      </c>
-      <c r="G131" s="1" t="s">
+      <c r="P131" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B132" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="J131" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N131" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O131" s="1" t="s">
+      <c r="C132" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="P131" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B132" s="1" t="s">
+      <c r="E132" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F132" s="1">
+        <v>1</v>
+      </c>
+      <c r="G132" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="C132" s="1" t="s">
+      <c r="J132" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N132" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O132" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="E132" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F132" s="1">
-        <v>1</v>
-      </c>
-      <c r="G132" s="1" t="s">
+      <c r="P132" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B133" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="J132" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N132" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O132" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="P132" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B133" s="1" t="s">
+      <c r="C133" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="C133" s="1" t="s">
+      <c r="E133" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F133" s="1">
+        <v>1</v>
+      </c>
+      <c r="G133" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="E133" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F133" s="1">
-        <v>1</v>
-      </c>
-      <c r="G133" s="1" t="s">
+      <c r="J133" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N133" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O133" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="P133" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B134" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="J133" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N133" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O133" s="1" t="s">
+      <c r="C134" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F134" s="1">
+        <v>1</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="J134" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N134" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O134" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="P134" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B136" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F136" s="1">
+        <v>1</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="J136" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N136" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O136" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="P136" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B137" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F137" s="1">
+        <v>1</v>
+      </c>
+      <c r="G137" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="J137" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N137" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O137" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="P137" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B138" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F138" s="1">
+        <v>1</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="J138" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N138" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O138" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="P138" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B139" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F139" s="1">
+        <v>1</v>
+      </c>
+      <c r="G139" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="J139" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N139" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O139" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="P139" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B140" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F140" s="1">
+        <v>1</v>
+      </c>
+      <c r="G140" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="J140" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N140" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O140" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="P140" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B142" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C142" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="P133" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B135" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="E135" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F135" s="1">
-        <v>1</v>
-      </c>
-      <c r="G135" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="J135" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N135" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O135" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="P135" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B136" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="E136" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F136" s="1">
-        <v>1</v>
-      </c>
-      <c r="G136" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="J136" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N136" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O136" s="1" t="s">
+      <c r="E142" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F142" s="1">
+        <v>1</v>
+      </c>
+      <c r="G142" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="J142" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N142" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O142" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="P142" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B143" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="C143" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="P136" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B137" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="E137" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F137" s="1">
-        <v>1</v>
-      </c>
-      <c r="G137" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="J137" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N137" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O137" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="P137" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B138" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="E138" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F138" s="1">
-        <v>1</v>
-      </c>
-      <c r="G138" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="J138" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N138" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O138" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="P138" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B139" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="E139" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F139" s="1">
-        <v>1</v>
-      </c>
-      <c r="G139" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="J139" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N139" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O139" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="P139" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B141" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="C141" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="E141" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F141" s="1">
-        <v>1</v>
-      </c>
-      <c r="G141" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="J141" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N141" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O141" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="P141" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B142" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="C142" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="E142" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F142" s="1">
-        <v>1</v>
-      </c>
-      <c r="G142" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="J142" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N142" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O142" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="P142" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B143" s="1" t="s">
+      <c r="E143" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F143" s="1">
+        <v>1</v>
+      </c>
+      <c r="G143" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="C143" s="1" t="s">
+      <c r="J143" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N143" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O143" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="E143" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F143" s="1">
-        <v>1</v>
-      </c>
-      <c r="G143" s="1" t="s">
+      <c r="P143" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B144" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="J143" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N143" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O143" s="1" t="s">
+      <c r="C144" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F144" s="1">
+        <v>1</v>
+      </c>
+      <c r="G144" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J144" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N144" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O144" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="P144" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B145" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F145" s="1">
+        <v>1</v>
+      </c>
+      <c r="G145" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="J145" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N145" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O145" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="P145" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B146" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C146" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="P143" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B144" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="C144" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="E144" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F144" s="1">
-        <v>1</v>
-      </c>
-      <c r="G144" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="J144" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N144" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O144" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="P144" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B145" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="C145" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="E145" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F145" s="1">
-        <v>1</v>
-      </c>
-      <c r="G145" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="J145" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N145" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O145" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="P145" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B147" s="1" t="s">
+      <c r="E146" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F146" s="1">
+        <v>1</v>
+      </c>
+      <c r="G146" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="C147" s="1" t="s">
+      <c r="J146" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N146" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O146" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="E147" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F147" s="1">
-        <v>1</v>
-      </c>
-      <c r="G147" s="1" t="s">
+      <c r="P146" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B148" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="J147" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K147" s="1">
+      <c r="C148" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F148" s="1">
+        <v>1</v>
+      </c>
+      <c r="G148" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="J148" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K148" s="1">
         <v>1008</v>
       </c>
-      <c r="L147" s="1">
+      <c r="L148" s="1">
         <v>1009</v>
       </c>
-      <c r="N147" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O147" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="P147" s="1" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="148" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B148" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="C148" s="1" t="s">
+      <c r="N148" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O148" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="P148" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="E148" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F148" s="1">
-        <v>1</v>
-      </c>
-      <c r="G148" s="1" t="s">
+    </row>
+    <row r="149" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B149" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="J148" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K148" s="1">
+      <c r="C149" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F149" s="1">
+        <v>1</v>
+      </c>
+      <c r="G149" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="J149" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K149" s="1">
         <v>1011</v>
       </c>
-      <c r="L148" s="1">
+      <c r="L149" s="1">
         <v>1012</v>
       </c>
-      <c r="N148" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O148" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="P148" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B149" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="C149" s="1" t="s">
+      <c r="N149" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O149" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="E149" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F149" s="1">
-        <v>1</v>
-      </c>
-      <c r="G149" s="1" t="s">
+      <c r="P149" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B150" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="J149" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N149" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O149" s="1" t="s">
+      <c r="C150" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="P149" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B150" s="1" t="s">
+      <c r="E150" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F150" s="1">
+        <v>1</v>
+      </c>
+      <c r="G150" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="C150" s="1" t="s">
+      <c r="J150" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N150" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O150" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="E150" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F150" s="1">
-        <v>1</v>
-      </c>
-      <c r="G150" s="1" t="s">
+      <c r="P150" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B151" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="J150" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K150" s="1">
+      <c r="C151" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F151" s="1">
+        <v>1</v>
+      </c>
+      <c r="G151" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="J151" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K151" s="1">
         <v>1006</v>
       </c>
-      <c r="L150" s="1">
+      <c r="L151" s="1">
         <v>1006</v>
       </c>
-      <c r="N150" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O150" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="P150" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B151" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="C151" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="E151" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F151" s="1">
-        <v>1</v>
-      </c>
-      <c r="G151" s="1" t="s">
+      <c r="N151" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O151" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="P151" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B152" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="J151" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N151" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O151" s="1" t="s">
+      <c r="C152" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="P151" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B153" s="1" t="s">
+      <c r="E152" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F152" s="1">
+        <v>1</v>
+      </c>
+      <c r="G152" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="C153" s="1" t="s">
+      <c r="J152" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N152" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O152" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="E153" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F153" s="1">
-        <v>1</v>
-      </c>
-      <c r="G153" s="1" t="s">
+      <c r="P152" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B154" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="J153" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N153" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O153" s="1" t="s">
+      <c r="C154" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="P153" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B154" s="1" t="s">
+      <c r="E154" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F154" s="1">
+        <v>1</v>
+      </c>
+      <c r="G154" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="C154" s="1" t="s">
+      <c r="J154" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N154" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O154" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="E154" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F154" s="1">
-        <v>1</v>
-      </c>
-      <c r="G154" s="1" t="s">
+      <c r="P154" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B155" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="J154" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N154" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O154" s="1" t="s">
+      <c r="C155" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="P154" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B155" s="1" t="s">
+      <c r="E155" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F155" s="1">
+        <v>1</v>
+      </c>
+      <c r="G155" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="C155" s="1" t="s">
+      <c r="J155" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N155" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O155" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="E155" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F155" s="1">
-        <v>1</v>
-      </c>
-      <c r="G155" s="1" t="s">
+      <c r="P155" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B156" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="J155" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N155" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O155" s="1" t="s">
+      <c r="C156" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="P155" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B156" s="1" t="s">
+      <c r="E156" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F156" s="1">
+        <v>1</v>
+      </c>
+      <c r="G156" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="C156" s="1" t="s">
+      <c r="J156" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N156" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O156" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="E156" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F156" s="1">
-        <v>1</v>
-      </c>
-      <c r="G156" s="1" t="s">
+      <c r="P156" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B157" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="J156" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N156" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O156" s="1" t="s">
+      <c r="C157" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="P156" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B157" s="1" t="s">
+      <c r="E157" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F157" s="1">
+        <v>1</v>
+      </c>
+      <c r="G157" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="C157" s="1" t="s">
+      <c r="J157" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N157" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O157" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="E157" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F157" s="1">
-        <v>1</v>
-      </c>
-      <c r="G157" s="1" t="s">
+      <c r="P157" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B158" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="J157" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N157" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O157" s="1" t="s">
+      <c r="C158" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="P157" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B159" s="1" t="s">
+      <c r="E158" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F158" s="1">
+        <v>1</v>
+      </c>
+      <c r="G158" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="C159" s="1" t="s">
+      <c r="J158" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N158" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O158" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="E159" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F159" s="1">
-        <v>1</v>
-      </c>
-      <c r="G159" s="1" t="s">
+      <c r="P158" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B160" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="J159" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N159" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O159" s="1" t="s">
+      <c r="C160" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="P159" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B160" s="1" t="s">
+      <c r="E160" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F160" s="1">
+        <v>1</v>
+      </c>
+      <c r="G160" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="C160" s="1" t="s">
+      <c r="J160" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N160" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O160" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="E160" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F160" s="1">
-        <v>1</v>
-      </c>
-      <c r="G160" s="1" t="s">
+      <c r="P160" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B161" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F161" s="1">
+        <v>1</v>
+      </c>
+      <c r="G161" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="J161" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N161" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O161" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="P161" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B162" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="J160" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N160" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O160" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="P160" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B161" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="C161" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="E161" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F161" s="1">
-        <v>1</v>
-      </c>
-      <c r="G161" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="J161" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N161" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O161" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="P161" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="162" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B162" s="1" t="s">
+      <c r="C162" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="C162" s="1" t="s">
+      <c r="E162" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F162" s="1">
+        <v>1</v>
+      </c>
+      <c r="G162" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="E162" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F162" s="1">
-        <v>1</v>
-      </c>
-      <c r="G162" s="1" t="s">
+      <c r="J162" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N162" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O162" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="P162" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="163" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B163" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F163" s="1">
+        <v>1</v>
+      </c>
+      <c r="G163" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="J163" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N163" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O163" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="P163" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B164" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="J162" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N162" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O162" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="P162" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B163" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="C163" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="E163" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F163" s="1">
-        <v>1</v>
-      </c>
-      <c r="G163" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="J163" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N163" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O163" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="P163" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="165" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B165" s="1" t="s">
+      <c r="C164" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="C165" s="1" t="s">
+      <c r="E164" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F164" s="1">
+        <v>1</v>
+      </c>
+      <c r="G164" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="E165" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F165" s="1">
-        <v>1</v>
-      </c>
-      <c r="G165" s="1" t="s">
+      <c r="J164" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N164" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O164" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="P164" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="166" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B166" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F166" s="1">
+        <v>1</v>
+      </c>
+      <c r="G166" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="J166" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N166" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O166" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="P166" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B167" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="J165" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N165" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O165" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="P165" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B166" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="C166" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="E166" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F166" s="1">
-        <v>1</v>
-      </c>
-      <c r="G166" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="J166" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N166" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O166" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="P166" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="167" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B167" s="1" t="s">
+      <c r="C167" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="C167" s="1" t="s">
+      <c r="E167" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F167" s="1">
+        <v>1</v>
+      </c>
+      <c r="G167" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="E167" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F167" s="1">
-        <v>1</v>
-      </c>
-      <c r="G167" s="1" t="s">
+      <c r="J167" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N167" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O167" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="P167" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="168" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B168" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="J167" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N167" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O167" s="1" t="s">
+      <c r="C168" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="P167" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B168" s="1" t="s">
+      <c r="E168" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F168" s="1">
+        <v>1</v>
+      </c>
+      <c r="G168" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="C168" s="1" t="s">
+      <c r="J168" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N168" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O168" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="E168" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F168" s="1">
-        <v>1</v>
-      </c>
-      <c r="G168" s="1" t="s">
+      <c r="P168" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B169" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="J168" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N168" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O168" s="1" t="s">
+      <c r="C169" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="P168" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B169" s="1" t="s">
+      <c r="E169" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F169" s="1">
+        <v>1</v>
+      </c>
+      <c r="G169" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="C169" s="1" t="s">
+      <c r="J169" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N169" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O169" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="E169" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F169" s="1">
-        <v>1</v>
-      </c>
-      <c r="G169" s="1" t="s">
+      <c r="P169" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B170" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="J169" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N169" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O169" s="1" t="s">
+      <c r="C170" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="P169" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B171" s="1" t="s">
+      <c r="E170" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F170" s="1">
+        <v>1</v>
+      </c>
+      <c r="G170" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="C171" s="1" t="s">
+      <c r="J170" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N170" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O170" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="E171" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F171" s="1">
-        <v>1</v>
-      </c>
-      <c r="G171" s="1" t="s">
+      <c r="P170" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B172" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="J171" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N171" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O171" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="P171" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B172" s="1" t="s">
+      <c r="C172" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="C172" s="1" t="s">
+      <c r="E172" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F172" s="1">
+        <v>1</v>
+      </c>
+      <c r="G172" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="E172" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F172" s="1">
-        <v>1</v>
-      </c>
-      <c r="G172" s="1" t="s">
+      <c r="J172" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N172" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O172" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="P172" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B173" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="J172" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N172" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O172" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="P172" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B173" s="1" t="s">
+      <c r="C173" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="C173" s="1" t="s">
+      <c r="E173" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F173" s="1">
+        <v>1</v>
+      </c>
+      <c r="G173" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="E173" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F173" s="1">
-        <v>1</v>
-      </c>
-      <c r="G173" s="1" t="s">
-        <v>238</v>
-      </c>
       <c r="J173" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K173" s="1">
-        <v>1000</v>
-      </c>
-      <c r="L173" s="1">
-        <v>1000</v>
+        <v>2</v>
       </c>
       <c r="N173" s="1" t="s">
         <v>1</v>
       </c>
       <c r="O173" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="P173" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="174" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B174" s="1" t="s">
         <v>240</v>
       </c>
@@ -8670,407 +8669,442 @@
         <v>1</v>
       </c>
       <c r="G174" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="J174" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K174" s="1">
+        <v>1000</v>
+      </c>
+      <c r="L174" s="1">
+        <v>1000</v>
+      </c>
+      <c r="N174" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O174" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="P174" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B175" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="J174" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N174" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O174" s="1" t="s">
+      <c r="C175" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="P174" s="1" t="s">
+      <c r="E175" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F175" s="1">
+        <v>1</v>
+      </c>
+      <c r="G175" s="1" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="175" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B175" s="1" t="s">
+      <c r="J175" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N175" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O175" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="C175" s="1" t="s">
+      <c r="P175" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="E175" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F175" s="1">
-        <v>1</v>
-      </c>
-      <c r="G175" s="1" t="s">
+    </row>
+    <row r="176" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B176" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="J175" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K175" s="1">
+      <c r="C176" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F176" s="1">
+        <v>1</v>
+      </c>
+      <c r="G176" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="J176" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K176" s="1">
         <v>1001</v>
       </c>
-      <c r="L175" s="1">
+      <c r="L176" s="1">
         <v>1001</v>
       </c>
-      <c r="N175" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O175" s="1" t="s">
+      <c r="N176" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O176" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="P176" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B178" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F178" s="1">
+        <v>1</v>
+      </c>
+      <c r="G178" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="J178" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N178" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O178" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="P178" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B179" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F179" s="1">
+        <v>1</v>
+      </c>
+      <c r="G179" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J179" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K179" s="1">
+        <v>1003</v>
+      </c>
+      <c r="L179" s="1">
+        <v>1003</v>
+      </c>
+      <c r="N179" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O179" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="P179" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B180" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F180" s="1">
+        <v>1</v>
+      </c>
+      <c r="G180" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="J180" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N180" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O180" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="P180" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B181" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C181" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="P175" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B177" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="C177" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="E177" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F177" s="1">
-        <v>1</v>
-      </c>
-      <c r="G177" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="J177" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N177" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O177" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="P177" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B178" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="C178" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="E178" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F178" s="1">
-        <v>1</v>
-      </c>
-      <c r="G178" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="J178" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K178" s="1">
-        <v>1003</v>
-      </c>
-      <c r="L178" s="1">
-        <v>1003</v>
-      </c>
-      <c r="N178" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O178" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="P178" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B179" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="C179" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="E179" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F179" s="1">
-        <v>1</v>
-      </c>
-      <c r="G179" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="J179" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N179" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O179" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="P179" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B180" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C180" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="E180" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F180" s="1">
-        <v>1</v>
-      </c>
-      <c r="G180" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="J180" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N180" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O180" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="P180" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B181" s="1" t="s">
+      <c r="E181" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F181" s="1">
+        <v>1</v>
+      </c>
+      <c r="G181" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="C181" s="1" t="s">
+      <c r="J181" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N181" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O181" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="E181" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F181" s="1">
-        <v>1</v>
-      </c>
-      <c r="G181" s="1" t="s">
+      <c r="P181" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B182" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="J181" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N181" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O181" s="1" t="s">
+      <c r="C182" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="P181" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B183" s="1" t="s">
+      <c r="E182" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F182" s="1">
+        <v>1</v>
+      </c>
+      <c r="G182" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="C183" s="1" t="s">
+      <c r="J182" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N182" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O182" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="E183" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F183" s="1">
-        <v>1</v>
-      </c>
-      <c r="G183" s="1" t="s">
+      <c r="P182" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B184" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="J183" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N183" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O183" s="1" t="s">
+      <c r="C184" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="P183" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B184" s="1" t="s">
+      <c r="E184" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F184" s="1">
+        <v>1</v>
+      </c>
+      <c r="G184" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C184" s="1" t="s">
+      <c r="J184" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N184" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O184" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="E184" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F184" s="1">
-        <v>1</v>
-      </c>
-      <c r="G184" s="1" t="s">
+      <c r="P184" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B185" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="J184" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N184" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O184" s="1" t="s">
+      <c r="C185" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="P184" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B185" s="1" t="s">
+      <c r="E185" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F185" s="1">
+        <v>1</v>
+      </c>
+      <c r="G185" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="C185" s="1" t="s">
+      <c r="J185" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N185" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O185" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="E185" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F185" s="1">
-        <v>1</v>
-      </c>
-      <c r="G185" s="1" t="s">
+      <c r="P185" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B186" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="J185" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N185" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O185" s="1" t="s">
+      <c r="C186" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="P185" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B186" s="1" t="s">
+      <c r="E186" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F186" s="1">
+        <v>1</v>
+      </c>
+      <c r="G186" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C186" s="1" t="s">
+      <c r="J186" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N186" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O186" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="E186" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F186" s="1">
-        <v>1</v>
-      </c>
-      <c r="G186" s="1" t="s">
+      <c r="P186" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B187" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="J186" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N186" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O186" s="1" t="s">
+      <c r="C187" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="P186" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B187" s="1" t="s">
+      <c r="E187" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F187" s="1">
+        <v>1</v>
+      </c>
+      <c r="G187" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C187" s="1" t="s">
+      <c r="J187" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N187" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O187" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="E187" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F187" s="1">
-        <v>1</v>
-      </c>
-      <c r="G187" s="1" t="s">
+      <c r="P187" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B188" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="J187" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N187" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O187" s="1" t="s">
+      <c r="C188" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="P187" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B189" s="1" t="s">
+      <c r="E188" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F188" s="1">
+        <v>1</v>
+      </c>
+      <c r="G188" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C189" s="1" t="s">
+      <c r="J188" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N188" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O188" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="E189" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F189" s="1">
-        <v>1</v>
-      </c>
-      <c r="G189" s="1" t="s">
+      <c r="P188" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B190" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="J189" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N189" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O189" s="1" t="s">
+      <c r="C190" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="P189" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B190" s="1" t="s">
+      <c r="E190" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F190" s="1">
+        <v>1</v>
+      </c>
+      <c r="G190" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C190" s="1" t="s">
+      <c r="J190" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N190" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O190" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="E190" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F190" s="1">
-        <v>1</v>
-      </c>
-      <c r="G190" s="1" t="s">
+      <c r="P190" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B191" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="J190" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N190" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O190" s="1" t="s">
+      <c r="C191" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="P190" s="1" t="s">
+      <c r="E191" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F191" s="1">
+        <v>1</v>
+      </c>
+      <c r="G191" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="J191" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N191" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O191" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="P191" s="1" t="s">
         <v>0</v>
       </c>
     </row>
